--- a/nodejs/src/jira-report-js-full.xlsx
+++ b/nodejs/src/jira-report-js-full.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="880">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="910">
   <si>
     <t>Raw metrics</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Cycle time distribution</t>
   </si>
   <si>
+    <t>Lead time distribution</t>
+  </si>
+  <si>
+    <t>Sprint metrics</t>
+  </si>
+  <si>
     <t>Issue key</t>
   </si>
   <si>
@@ -160,6 +166,27 @@
     <t>Cycle time Distribution</t>
   </si>
   <si>
+    <t>Lead time Range</t>
+  </si>
+  <si>
+    <t>Lead time Distribution</t>
+  </si>
+  <si>
+    <t>Sprint id</t>
+  </si>
+  <si>
+    <t>Sprint name</t>
+  </si>
+  <si>
+    <t>Sprint start date</t>
+  </si>
+  <si>
+    <t>Sprint end date</t>
+  </si>
+  <si>
+    <t>Sprint completed date</t>
+  </si>
+  <si>
     <t>TDC-4662</t>
   </si>
   <si>
@@ -226,6 +253,9 @@
     <t>2020-7-17</t>
   </si>
   <si>
+    <t>TDC Sprint 41</t>
+  </si>
+  <si>
     <t>TDC-4479</t>
   </si>
   <si>
@@ -253,6 +283,9 @@
     <t>TDC-4501</t>
   </si>
   <si>
+    <t>TDC Sprint 42</t>
+  </si>
+  <si>
     <t>TDC-4552</t>
   </si>
   <si>
@@ -277,6 +310,9 @@
     <t>2020-7-20</t>
   </si>
   <si>
+    <t>TDC Sprint 43</t>
+  </si>
+  <si>
     <t>TDC-4481</t>
   </si>
   <si>
@@ -304,6 +340,9 @@
     <t>TDC-4226</t>
   </si>
   <si>
+    <t>TDC Sprint 44</t>
+  </si>
+  <si>
     <t>TDC-4081</t>
   </si>
   <si>
@@ -346,6 +385,9 @@
     <t>2020-7-21</t>
   </si>
   <si>
+    <t>TDC Sprint 45</t>
+  </si>
+  <si>
     <t>TDC-4551</t>
   </si>
   <si>
@@ -364,6 +406,9 @@
     <t>2020-7-24</t>
   </si>
   <si>
+    <t>TDC Sprint 46</t>
+  </si>
+  <si>
     <t>TDC-4642</t>
   </si>
   <si>
@@ -373,6 +418,9 @@
     <t>2020-8-20</t>
   </si>
   <si>
+    <t>2020-9-10</t>
+  </si>
+  <si>
     <t>2020-8-20 16:18:14</t>
   </si>
   <si>
@@ -388,9 +436,18 @@
     <t>2020-9-7 17:57:31</t>
   </si>
   <si>
+    <t>2020-9-9 12:47:09</t>
+  </si>
+  <si>
+    <t>2020-9-10 00:01:45</t>
+  </si>
+  <si>
     <t>TDC-4535</t>
   </si>
   <si>
+    <t>TDC Sprint 47</t>
+  </si>
+  <si>
     <t>TDC-3796</t>
   </si>
   <si>
@@ -433,6 +490,9 @@
     <t>TDC-4342</t>
   </si>
   <si>
+    <t>TDC Sprint 48</t>
+  </si>
+  <si>
     <t>TDC-3951</t>
   </si>
   <si>
@@ -466,6 +526,9 @@
     <t>TDC-4519</t>
   </si>
   <si>
+    <t>TDC Sprint 49</t>
+  </si>
+  <si>
     <t>TDC-4523</t>
   </si>
   <si>
@@ -478,6 +541,18 @@
     <t>TDC-4498</t>
   </si>
   <si>
+    <t>TDC Sprint 50</t>
+  </si>
+  <si>
+    <t>2020-08-24T17:30:59.324-05:00</t>
+  </si>
+  <si>
+    <t>2020-09-10T07:54:00.000-05:00</t>
+  </si>
+  <si>
+    <t>2020-09-10T06:31:17.312-05:00</t>
+  </si>
+  <si>
     <t>TDC-3834</t>
   </si>
   <si>
@@ -1294,6 +1369,18 @@
     <t>2020-8-21 07:53:49</t>
   </si>
   <si>
+    <t>2020-9-10 15:21:44</t>
+  </si>
+  <si>
+    <t>2020-9-10 15:21:51</t>
+  </si>
+  <si>
+    <t>2020-9-10 15:21:59</t>
+  </si>
+  <si>
+    <t>2020-9-10 15:22:06</t>
+  </si>
+  <si>
     <t>TDC-4680</t>
   </si>
   <si>
@@ -1303,6 +1390,9 @@
     <t>2020-9-7</t>
   </si>
   <si>
+    <t>2020-9-9</t>
+  </si>
+  <si>
     <t>2020-9-7 11:47:38</t>
   </si>
   <si>
@@ -1318,6 +1408,9 @@
     <t>2020-9-9 10:56:56</t>
   </si>
   <si>
+    <t>2020-9-9 17:39:16</t>
+  </si>
+  <si>
     <t>TDC-4563</t>
   </si>
   <si>
@@ -1351,6 +1444,12 @@
     <t>2020-9-8 14:58:11</t>
   </si>
   <si>
+    <t>2020-9-9 12:47:00</t>
+  </si>
+  <si>
+    <t>2020-9-9 23:15:01</t>
+  </si>
+  <si>
     <t>TDC-4621</t>
   </si>
   <si>
@@ -1630,6 +1729,12 @@
     <t>2020-9-4 16:59:41</t>
   </si>
   <si>
+    <t>2020-9-9 12:09:03</t>
+  </si>
+  <si>
+    <t>2020-9-10 09:20:23</t>
+  </si>
+  <si>
     <t>TDC-4623</t>
   </si>
   <si>
@@ -1681,6 +1786,9 @@
     <t>2020-9-9 10:06:54</t>
   </si>
   <si>
+    <t>2020-9-9 14:34:29</t>
+  </si>
+  <si>
     <t>TDC-4625</t>
   </si>
   <si>
@@ -1759,6 +1867,12 @@
     <t>2020-9-8 15:16:19</t>
   </si>
   <si>
+    <t>2020-9-9 12:47:15</t>
+  </si>
+  <si>
+    <t>2020-9-10 00:03:18</t>
+  </si>
+  <si>
     <t>[QA] Production update TICO</t>
   </si>
   <si>
@@ -1783,12 +1897,21 @@
     <t>TDC-4415</t>
   </si>
   <si>
+    <t>[QA] Production update TICO-6201</t>
+  </si>
+  <si>
     <t>2020-7-29 14:10:03</t>
   </si>
   <si>
     <t>2020-7-29 14:10:13</t>
   </si>
   <si>
+    <t>2020-9-10 10:15:58</t>
+  </si>
+  <si>
+    <t>2020-9-10 10:16:44</t>
+  </si>
+  <si>
     <t>[Security] Monitoring and more</t>
   </si>
   <si>
@@ -1954,9 +2077,6 @@
     <t>2020-7-20 11:50:18</t>
   </si>
   <si>
-    <t>TDC-4673</t>
-  </si>
-  <si>
     <t>[Front] Redirect /Users and /account to the v2 of scim</t>
   </si>
   <si>
@@ -2029,6 +2149,9 @@
     <t>2020-8-20 16:34:39</t>
   </si>
   <si>
+    <t>TDC-4611</t>
+  </si>
+  <si>
     <t>[Front] Clicking on dataset tab remove the filter form the URL</t>
   </si>
   <si>
@@ -2053,7 +2176,7 @@
     <t>2020-9-2 15:15:38</t>
   </si>
   <si>
-    <t>TDC-4611</t>
+    <t>TDC-4652</t>
   </si>
   <si>
     <t>TDC-4664</t>
@@ -2074,7 +2197,13 @@
     <t>2020-9-7 16:14:44</t>
   </si>
   <si>
-    <t>TDC-4652</t>
+    <t>2020-9-9 12:47:26</t>
+  </si>
+  <si>
+    <t>2020-9-9 16:30:49</t>
+  </si>
+  <si>
+    <t>TDC-4667</t>
   </si>
   <si>
     <t>TDC-4666</t>
@@ -2092,9 +2221,6 @@
     <t>2020-9-4 10:19:17</t>
   </si>
   <si>
-    <t>TDC-4667</t>
-  </si>
-  <si>
     <t>[Release] Data Inventory 1.26.0</t>
   </si>
   <si>
@@ -2615,42 +2741,6 @@
   </si>
   <si>
     <t>2020-9-7 11:12:53</t>
-  </si>
-  <si>
-    <t>[QA] [UI] Maintain the scenario "Preview the sample of the dataset upon creation"</t>
-  </si>
-  <si>
-    <t>2020-9-3 12:22:23</t>
-  </si>
-  <si>
-    <t>2020-9-3 12:22:28</t>
-  </si>
-  <si>
-    <t>2020-9-3 12:22:32</t>
-  </si>
-  <si>
-    <t>2020-9-3 14:08:21</t>
-  </si>
-  <si>
-    <t>TDC-4679</t>
-  </si>
-  <si>
-    <t>[Release] Dataset 1.32.0</t>
-  </si>
-  <si>
-    <t>2020-9-7 11:15:59</t>
-  </si>
-  <si>
-    <t>2020-9-7 11:16:03</t>
-  </si>
-  <si>
-    <t>2020-9-7 11:24:57</t>
-  </si>
-  <si>
-    <t>2020-9-8 15:36:39</t>
-  </si>
-  <si>
-    <t>2020-9-9 10:39:39</t>
   </si>
 </sst>
 </file>
@@ -2669,7 +2759,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2691,6 +2781,16 @@
         <fgColor rgb="ccffcc"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ccaacc"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ccaaff"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2704,7 +2804,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2714,6 +2814,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3055,7 +3161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT104"/>
+  <dimension ref="A1:BA102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3065,10 +3171,10 @@
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="3" width="25" customWidth="1"/>
-    <col min="4" max="46" width="25" style="1" customWidth="1"/>
+    <col min="4" max="53" width="25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3121,176 +3227,208 @@
         <v>2</v>
       </c>
       <c r="AT1" s="4"/>
+      <c r="AU1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="AX1" s="6"/>
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="6"/>
+      <c r="BA1" s="6"/>
     </row>
-    <row r="2" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="T2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="U2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="V2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="W2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="X2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="Y2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AA2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="AB2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="AD2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AE2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="AF2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AG2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AH2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AJ2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AK2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AL2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AM2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="AN2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AO2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AP2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AQ2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AR2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AS2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AT2" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>56</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
@@ -3319,31 +3457,31 @@
         <v>1.9276851851851853</v>
       </c>
       <c r="AJ3" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="AK3" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="AL3">
         <v>0.2</v>
       </c>
       <c r="AM3">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN3">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO3">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP3">
         <v>4.79</v>
       </c>
       <c r="AQ3">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR3">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
       <c r="AS3">
         <v>0</v>
@@ -3351,43 +3489,49 @@
       <c r="AT3">
         <v>23</v>
       </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -3414,71 +3558,83 @@
         <v>7.077928240740741</v>
       </c>
       <c r="AJ4" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="AK4" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="AL4">
         <v>1.99</v>
       </c>
       <c r="AM4">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN4">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO4">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP4">
         <v>8.04</v>
       </c>
       <c r="AQ4">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR4">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
       <c r="AS4">
         <v>3</v>
       </c>
       <c r="AT4">
+        <v>14</v>
+      </c>
+      <c r="AU4">
+        <v>5</v>
+      </c>
+      <c r="AV4">
         <v>12</v>
       </c>
+      <c r="AW4">
+        <v>1567</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>80</v>
+      </c>
     </row>
-    <row r="5" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="F5" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -3509,59 +3665,71 @@
         <v>1.9784027777777777</v>
       </c>
       <c r="AJ5" t="s">
+        <v>89</v>
+      </c>
+      <c r="AK5" t="s">
         <v>79</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>70</v>
       </c>
       <c r="AL5">
         <v>0.38</v>
       </c>
       <c r="AM5">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN5">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO5">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP5">
         <v>1.38</v>
       </c>
       <c r="AQ5">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR5">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
       <c r="AS5">
         <v>6</v>
       </c>
       <c r="AT5">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="AU5">
+        <v>10</v>
+      </c>
+      <c r="AV5">
+        <v>6</v>
+      </c>
+      <c r="AW5">
+        <v>1569</v>
+      </c>
+      <c r="AX5" t="s">
+        <v>90</v>
       </c>
     </row>
-    <row r="6" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -3584,71 +3752,83 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="AK6" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AL6">
         <v>12.05</v>
       </c>
       <c r="AM6">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN6">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO6">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP6">
         <v>19.07</v>
       </c>
       <c r="AQ6">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR6">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
       <c r="AS6">
         <v>9</v>
       </c>
       <c r="AT6">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="AU6">
+        <v>15</v>
+      </c>
+      <c r="AV6">
+        <v>5</v>
+      </c>
+      <c r="AW6">
+        <v>1617</v>
+      </c>
+      <c r="AX6" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -3679,31 +3859,31 @@
         <v>5.342604166666668</v>
       </c>
       <c r="AJ7" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="AK7" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="AL7">
         <v>23.74</v>
       </c>
       <c r="AM7">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN7">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO7">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP7">
         <v>33.72</v>
       </c>
       <c r="AQ7">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR7">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
       <c r="AS7">
         <v>12</v>
@@ -3711,46 +3891,58 @@
       <c r="AT7">
         <v>9</v>
       </c>
+      <c r="AU7">
+        <v>20</v>
+      </c>
+      <c r="AV7">
+        <v>6</v>
+      </c>
+      <c r="AW7">
+        <v>1656</v>
+      </c>
+      <c r="AX7" t="s">
+        <v>109</v>
+      </c>
     </row>
-    <row r="8" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -3789,57 +3981,69 @@
         <v>8.135405092592594</v>
       </c>
       <c r="AJ8" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="AK8" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AL8">
         <v>9.92</v>
       </c>
       <c r="AM8">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN8">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO8">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP8">
         <v>20.67</v>
       </c>
       <c r="AQ8">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR8">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
       <c r="AS8">
         <v>15</v>
       </c>
       <c r="AT8">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="AU8">
+        <v>25</v>
+      </c>
+      <c r="AV8">
+        <v>4</v>
+      </c>
+      <c r="AW8">
+        <v>1657</v>
+      </c>
+      <c r="AX8" t="s">
+        <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -3864,31 +4068,31 @@
         <v>0</v>
       </c>
       <c r="AJ9" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="AK9" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="AL9">
         <v>17.28</v>
       </c>
       <c r="AM9">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN9">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO9">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP9">
         <v>23.01</v>
       </c>
       <c r="AQ9">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR9">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
       <c r="AS9">
         <v>18</v>
@@ -3896,39 +4100,57 @@
       <c r="AT9">
         <v>0</v>
       </c>
+      <c r="AU9">
+        <v>30</v>
+      </c>
+      <c r="AV9">
+        <v>7</v>
+      </c>
+      <c r="AW9">
+        <v>1682</v>
+      </c>
+      <c r="AX9" t="s">
+        <v>131</v>
+      </c>
     </row>
-    <row r="10" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>134</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+        <v>140</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
@@ -3950,35 +4172,44 @@
       <c r="Y10">
         <v>4.263877314814815</v>
       </c>
+      <c r="Z10">
+        <v>1.7844675925925926</v>
+      </c>
+      <c r="AA10">
+        <v>0.46847222222222223</v>
+      </c>
+      <c r="AH10">
+        <v>20.49511574074074</v>
+      </c>
       <c r="AI10">
-        <v>6.2485532407407405</v>
+        <v>8.501493055555557</v>
       </c>
       <c r="AJ10" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="AK10" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="AL10">
         <v>1.21</v>
       </c>
       <c r="AM10">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN10">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO10">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP10">
         <v>1.25</v>
       </c>
       <c r="AQ10">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR10">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
       <c r="AS10">
         <v>21</v>
@@ -3986,51 +4217,63 @@
       <c r="AT10">
         <v>1</v>
       </c>
+      <c r="AU10">
+        <v>35</v>
+      </c>
+      <c r="AV10">
+        <v>6</v>
+      </c>
+      <c r="AW10">
+        <v>1713</v>
+      </c>
+      <c r="AX10" t="s">
+        <v>144</v>
+      </c>
     </row>
-    <row r="11" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>135</v>
+        <v>154</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>136</v>
+        <v>155</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
-        <v>138</v>
+        <v>157</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -4069,31 +4312,31 @@
         <v>7.405104166666667</v>
       </c>
       <c r="AJ11" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="AK11" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="AL11">
         <v>3.15</v>
       </c>
       <c r="AM11">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN11">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO11">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP11">
         <v>24.12</v>
       </c>
       <c r="AQ11">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR11">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
       <c r="AS11">
         <v>24</v>
@@ -4101,44 +4344,56 @@
       <c r="AT11">
         <v>1</v>
       </c>
+      <c r="AU11">
+        <v>40</v>
+      </c>
+      <c r="AV11">
+        <v>3</v>
+      </c>
+      <c r="AW11">
+        <v>1738</v>
+      </c>
+      <c r="AX11" t="s">
+        <v>159</v>
+      </c>
     </row>
-    <row r="12" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>145</v>
+        <v>165</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -4174,31 +4429,31 @@
         <v>27.956076388888892</v>
       </c>
       <c r="AJ12" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="AK12" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="AL12">
         <v>3.28</v>
       </c>
       <c r="AM12">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN12">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO12">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP12">
         <v>4</v>
       </c>
       <c r="AQ12">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR12">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
       <c r="AS12">
         <v>27</v>
@@ -4206,25 +4461,37 @@
       <c r="AT12">
         <v>2</v>
       </c>
+      <c r="AU12">
+        <v>45</v>
+      </c>
+      <c r="AV12">
+        <v>6</v>
+      </c>
+      <c r="AW12">
+        <v>1762</v>
+      </c>
+      <c r="AX12" t="s">
+        <v>171</v>
+      </c>
     </row>
-    <row r="13" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C13" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -4249,31 +4516,31 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="AK13" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="AL13">
         <v>3.23</v>
       </c>
       <c r="AM13">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN13">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO13">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP13">
         <v>8.8</v>
       </c>
       <c r="AQ13">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR13">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
       <c r="AS13">
         <v>30</v>
@@ -4281,42 +4548,63 @@
       <c r="AT13">
         <v>0</v>
       </c>
+      <c r="AU13">
+        <v>50</v>
+      </c>
+      <c r="AV13">
+        <v>2</v>
+      </c>
+      <c r="AW13">
+        <v>1772</v>
+      </c>
+      <c r="AX13" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY13" t="s">
+        <v>177</v>
+      </c>
+      <c r="AZ13" t="s">
+        <v>178</v>
+      </c>
+      <c r="BA13" t="s">
+        <v>179</v>
+      </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
@@ -4349,70 +4637,76 @@
         <v>107.10065972222222</v>
       </c>
       <c r="AJ14" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="AK14" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="AL14">
         <v>1.01</v>
       </c>
       <c r="AM14">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN14">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO14">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP14">
         <v>1.02</v>
       </c>
       <c r="AQ14">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR14">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
+      </c>
+      <c r="AU14">
+        <v>55</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="B15" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C15" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>171</v>
+        <v>196</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
@@ -4448,62 +4742,68 @@
         <v>13.069791666666665</v>
       </c>
       <c r="AJ15" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AK15" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AL15">
         <v>9.84</v>
       </c>
       <c r="AM15">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN15">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO15">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP15">
         <v>27.99</v>
       </c>
       <c r="AQ15">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR15">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
+      </c>
+      <c r="AU15">
+        <v>60</v>
+      </c>
+      <c r="AV15">
+        <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C16" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
@@ -4532,64 +4832,70 @@
         <v>0.19925925925925925</v>
       </c>
       <c r="AJ16" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="AK16" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AL16">
         <v>28.05</v>
       </c>
       <c r="AM16">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN16">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO16">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP16">
         <v>39.12</v>
       </c>
       <c r="AQ16">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR16">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
+      </c>
+      <c r="AU16">
+        <v>65</v>
+      </c>
+      <c r="AV16">
+        <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C17" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="J17" s="1"/>
       <c r="K17" s="1" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
@@ -4621,73 +4927,79 @@
         <v>5.939965277777778</v>
       </c>
       <c r="AJ17" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AK17" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="AL17">
         <v>27.96</v>
       </c>
       <c r="AM17">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN17">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO17">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP17">
         <v>102.76</v>
       </c>
       <c r="AQ17">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR17">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
+      </c>
+      <c r="AU17">
+        <v>70</v>
+      </c>
+      <c r="AV17">
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="B18" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -4720,71 +5032,77 @@
         <v>14.809166666666668</v>
       </c>
       <c r="AJ18" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="AK18" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="AL18">
         <v>13.07</v>
       </c>
       <c r="AM18">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN18">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO18">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP18">
         <v>25.86</v>
       </c>
       <c r="AQ18">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR18">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
+      </c>
+      <c r="AU18">
+        <v>75</v>
+      </c>
+      <c r="AV18">
+        <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -4814,64 +5132,70 @@
         <v>15.946145833333334</v>
       </c>
       <c r="AJ19" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="AK19" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="AL19">
         <v>26.02</v>
       </c>
       <c r="AM19">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN19">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO19">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP19">
         <v>307.03</v>
       </c>
       <c r="AQ19">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR19">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
+      </c>
+      <c r="AU19">
+        <v>80</v>
+      </c>
+      <c r="AV19">
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>217</v>
+        <v>242</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>219</v>
+        <v>244</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>220</v>
+        <v>245</v>
       </c>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
@@ -4903,70 +5227,76 @@
         <v>1.9083101851851854</v>
       </c>
       <c r="AJ20" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="AK20" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="AL20">
         <v>11.06</v>
       </c>
       <c r="AM20">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN20">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO20">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP20">
         <v>11.71</v>
       </c>
       <c r="AQ20">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR20">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
+      </c>
+      <c r="AU20">
+        <v>85</v>
+      </c>
+      <c r="AV20">
+        <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C21" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -5002,57 +5332,63 @@
         <v>13.316875</v>
       </c>
       <c r="AJ21" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="AK21" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="AL21">
         <v>0.73</v>
       </c>
       <c r="AM21">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN21">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO21">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP21">
         <v>0.74</v>
       </c>
       <c r="AQ21">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR21">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
+      </c>
+      <c r="AU21">
+        <v>90</v>
+      </c>
+      <c r="AV21">
+        <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -5081,72 +5417,72 @@
         <v>0</v>
       </c>
       <c r="AJ22" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="AK22" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="AL22">
         <v>3.97</v>
       </c>
       <c r="AM22">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN22">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO22">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP22">
         <v>4.01</v>
       </c>
       <c r="AQ22">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR22">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C23" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="N23" s="1"/>
       <c r="O23" s="1"/>
@@ -5185,72 +5521,72 @@
         <v>15.174050925925926</v>
       </c>
       <c r="AJ23" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="AK23" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="AL23">
         <v>7.67</v>
       </c>
       <c r="AM23">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN23">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO23">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP23">
         <v>7.69</v>
       </c>
       <c r="AQ23">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR23">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="N24" s="1"/>
       <c r="O24" s="1"/>
@@ -5289,70 +5625,70 @@
         <v>14.162905092592592</v>
       </c>
       <c r="AJ24" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="AK24" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="AL24">
         <v>0.1</v>
       </c>
       <c r="AM24">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN24">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO24">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP24">
         <v>0.69</v>
       </c>
       <c r="AQ24">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR24">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>267</v>
+        <v>292</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -5388,73 +5724,73 @@
         <v>9.83880787037037</v>
       </c>
       <c r="AJ25" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="AK25" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="AL25">
         <v>2.01</v>
       </c>
       <c r="AM25">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN25">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO25">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP25">
         <v>8.99</v>
       </c>
       <c r="AQ25">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR25">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1" t="s">
-        <v>275</v>
+        <v>300</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>278</v>
+        <v>303</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -5492,68 +5828,68 @@
         <v>12.048333333333334</v>
       </c>
       <c r="AJ26" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="AK26" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="AL26">
         <v>1.3</v>
       </c>
       <c r="AM26">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN26">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO26">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP26">
         <v>2.01</v>
       </c>
       <c r="AQ26">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR26">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>284</v>
+        <v>309</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1" t="s">
-        <v>286</v>
+        <v>311</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>287</v>
+        <v>312</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
-        <v>288</v>
+        <v>313</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>289</v>
+        <v>314</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>290</v>
+        <v>315</v>
       </c>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -5586,75 +5922,75 @@
         <v>0.10909722222222222</v>
       </c>
       <c r="AJ27" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="AK27" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="AL27">
         <v>13.93</v>
       </c>
       <c r="AM27">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN27">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO27">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP27">
         <v>100.72</v>
       </c>
       <c r="AQ27">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR27">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C28" t="s">
-        <v>292</v>
+        <v>317</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>294</v>
+        <v>319</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>295</v>
+        <v>320</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>296</v>
+        <v>321</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>297</v>
+        <v>322</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>299</v>
+        <v>324</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>300</v>
+        <v>325</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>301</v>
+        <v>326</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>302</v>
+        <v>327</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1"/>
@@ -5695,70 +6031,70 @@
         <v>9.918090277777779</v>
       </c>
       <c r="AJ28" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="AK28" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="AL28">
         <v>6.05</v>
       </c>
       <c r="AM28">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN28">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO28">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP28">
         <v>15.17</v>
       </c>
       <c r="AQ28">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR28">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>304</v>
+        <v>329</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>306</v>
+        <v>331</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>307</v>
+        <v>332</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>308</v>
+        <v>333</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
-        <v>309</v>
+        <v>334</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -5794,64 +6130,64 @@
         <v>17.279340277777777</v>
       </c>
       <c r="AJ29" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="AK29" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="AL29">
         <v>5.89</v>
       </c>
       <c r="AM29">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN29">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO29">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP29">
         <v>14.01</v>
       </c>
       <c r="AQ29">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR29">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C30" t="s">
-        <v>314</v>
+        <v>339</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>315</v>
+        <v>340</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>318</v>
+        <v>343</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>319</v>
+        <v>344</v>
       </c>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
@@ -5883,74 +6219,74 @@
         <v>10.866354166666667</v>
       </c>
       <c r="AJ30" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="AK30" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="AL30">
         <v>1.31</v>
       </c>
       <c r="AM30">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN30">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO30">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP30">
         <v>6.29</v>
       </c>
       <c r="AQ30">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR30">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>321</v>
+        <v>346</v>
       </c>
       <c r="B31" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>322</v>
+        <v>347</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>324</v>
+        <v>349</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>325</v>
+        <v>350</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>326</v>
+        <v>351</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
@@ -5982,68 +6318,68 @@
         <v>0.0004050925925925926</v>
       </c>
       <c r="AJ31" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="AK31" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="AL31">
         <v>11.34</v>
       </c>
       <c r="AM31">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN31">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO31">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP31">
         <v>31.75</v>
       </c>
       <c r="AQ31">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR31">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>335</v>
+        <v>360</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1" t="s">
-        <v>336</v>
+        <v>361</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>340</v>
+        <v>365</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -6076,68 +6412,68 @@
         <v>1.2103009259259259</v>
       </c>
       <c r="AJ32" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="AK32" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="AL32">
         <v>1.89</v>
       </c>
       <c r="AM32">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN32">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO32">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP32">
         <v>6.87</v>
       </c>
       <c r="AQ32">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR32">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>342</v>
+        <v>367</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>343</v>
+        <v>368</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1" t="s">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>346</v>
+        <v>371</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
-        <v>347</v>
+        <v>372</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>348</v>
+        <v>373</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>349</v>
+        <v>374</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -6170,68 +6506,68 @@
         <v>1.9876851851851853</v>
       </c>
       <c r="AJ33" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="AK33" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="AL33">
         <v>2.08</v>
       </c>
       <c r="AM33">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN33">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO33">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP33">
         <v>2.19</v>
       </c>
       <c r="AQ33">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR33">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" t="s">
+        <v>376</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34" t="s">
-        <v>351</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F34" s="1" t="s">
-        <v>352</v>
+        <v>377</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1" t="s">
-        <v>353</v>
+        <v>378</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
-        <v>355</v>
+        <v>380</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>356</v>
+        <v>381</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -6264,62 +6600,62 @@
         <v>0.37957175925925923</v>
       </c>
       <c r="AJ34" t="s">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="AK34" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="AL34">
         <v>10.87</v>
       </c>
       <c r="AM34">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN34">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO34">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP34">
         <v>13.84</v>
       </c>
       <c r="AQ34">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR34">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>360</v>
+        <v>385</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1" t="s">
-        <v>361</v>
+        <v>386</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>362</v>
+        <v>387</v>
       </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1" t="s">
-        <v>363</v>
+        <v>388</v>
       </c>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
@@ -6348,70 +6684,70 @@
         <v>23.737523148148146</v>
       </c>
       <c r="AJ35" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="AK35" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="AL35">
         <v>4.15</v>
       </c>
       <c r="AM35">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN35">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO35">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP35">
         <v>4.3</v>
       </c>
       <c r="AQ35">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR35">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C36" t="s">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>367</v>
+        <v>392</v>
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1" t="s">
-        <v>368</v>
+        <v>393</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>369</v>
+        <v>394</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>370</v>
+        <v>395</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>371</v>
+        <v>396</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>372</v>
+        <v>397</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="N36" s="1"/>
       <c r="O36" s="1"/>
@@ -6447,64 +6783,64 @@
         <v>28.054212962962964</v>
       </c>
       <c r="AJ36" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="AK36" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="AL36">
         <v>0.15</v>
       </c>
       <c r="AM36">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN36">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO36">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP36">
         <v>46.98</v>
       </c>
       <c r="AQ36">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR36">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="B37" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>377</v>
+        <v>402</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>378</v>
+        <v>403</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>380</v>
+        <v>405</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>382</v>
+        <v>407</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1" t="s">
-        <v>384</v>
+        <v>409</v>
       </c>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
@@ -6536,66 +6872,66 @@
         <v>5.069143518518518</v>
       </c>
       <c r="AJ37" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="AK37" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="AL37">
         <v>4.04</v>
       </c>
       <c r="AM37">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN37">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO37">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP37">
         <v>4.33</v>
       </c>
       <c r="AQ37">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR37">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="B38" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C38" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>389</v>
+        <v>414</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>390</v>
+        <v>415</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>391</v>
+        <v>416</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>393</v>
+        <v>418</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>394</v>
+        <v>419</v>
       </c>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
@@ -6630,55 +6966,55 @@
         <v>16.77619212962963</v>
       </c>
       <c r="AJ38" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="AK38" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AL38">
         <v>1.91</v>
       </c>
       <c r="AM38">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN38">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO38">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP38">
         <v>37.9</v>
       </c>
       <c r="AQ38">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR38">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>395</v>
+        <v>420</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>396</v>
+        <v>421</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>398</v>
+        <v>423</v>
       </c>
       <c r="G39" s="1"/>
       <c r="H39" s="1" t="s">
-        <v>399</v>
+        <v>424</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -6704,51 +7040,51 @@
         <v>0</v>
       </c>
       <c r="AJ39" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="AK39" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AL39">
         <v>0.11</v>
       </c>
       <c r="AM39">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN39">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO39">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP39">
         <v>0.11</v>
       </c>
       <c r="AQ39">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR39">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>400</v>
+        <v>425</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>401</v>
+        <v>426</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>403</v>
+        <v>428</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -6773,68 +7109,68 @@
         <v>0</v>
       </c>
       <c r="AJ40" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="AK40" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="AL40">
         <v>6.74</v>
       </c>
       <c r="AM40">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN40">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO40">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP40">
         <v>29.73</v>
       </c>
       <c r="AQ40">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR40">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>406</v>
+        <v>431</v>
       </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1" t="s">
-        <v>407</v>
+        <v>432</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>408</v>
+        <v>433</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
-        <v>409</v>
+        <v>434</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>411</v>
+        <v>436</v>
       </c>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
@@ -6867,77 +7203,77 @@
         <v>1.2950462962962963</v>
       </c>
       <c r="AJ41" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="AK41" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="AL41">
         <v>2.96</v>
       </c>
       <c r="AM41">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN41">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO41">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP41">
         <v>2.97</v>
       </c>
       <c r="AQ41">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR41">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>414</v>
+        <v>439</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>415</v>
+        <v>440</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>418</v>
+        <v>443</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>419</v>
+        <v>444</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>420</v>
+        <v>445</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>421</v>
+        <v>446</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1" t="s">
-        <v>423</v>
+        <v>448</v>
       </c>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -6976,58 +7312,68 @@
         <v>11.342962962962963</v>
       </c>
       <c r="AJ42" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="AK42" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="AL42">
         <v>7.08</v>
       </c>
       <c r="AM42">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN42">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO42">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP42">
         <v>89.18</v>
       </c>
       <c r="AQ42">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR42">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>424</v>
+        <v>449</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>425</v>
+        <v>450</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E43" s="1"/>
+        <v>259</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="F43" s="1" t="s">
-        <v>426</v>
+        <v>451</v>
       </c>
       <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="H43" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>453</v>
+      </c>
       <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
+      <c r="K43" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
+      <c r="N43" s="1" t="s">
+        <v>455</v>
+      </c>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
@@ -7036,69 +7382,88 @@
       <c r="T43">
         <v>17.688217592592594</v>
       </c>
+      <c r="V43">
+        <v>20.31105324074074</v>
+      </c>
+      <c r="W43">
+        <v>0.00008101851851851852</v>
+      </c>
+      <c r="Y43">
+        <v>0.00009259259259259259</v>
+      </c>
+      <c r="AB43">
+        <v>0.00008101851851851852</v>
+      </c>
+      <c r="AH43">
+        <v>37.99944444444444</v>
+      </c>
       <c r="AI43">
-        <v>0</v>
+        <v>0.0001736111111111111</v>
       </c>
       <c r="AJ43" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="AK43" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="AL43">
         <v>1.98</v>
       </c>
       <c r="AM43">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN43">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO43">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP43">
         <v>32.89</v>
       </c>
       <c r="AQ43">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR43">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>427</v>
+        <v>456</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C44" t="s">
-        <v>428</v>
+        <v>457</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E44" s="1"/>
+        <v>458</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>459</v>
+      </c>
       <c r="F44" s="1" t="s">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1" t="s">
-        <v>433</v>
+        <v>463</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="M44" s="1"/>
+        <v>464</v>
+      </c>
+      <c r="M44" s="1" t="s">
+        <v>465</v>
+      </c>
       <c r="N44" s="1"/>
       <c r="O44" s="1"/>
       <c r="P44" s="1"/>
@@ -7120,71 +7485,83 @@
       <c r="Z44">
         <v>1.0417708333333333</v>
       </c>
+      <c r="AA44">
+        <v>0.2793981481481482</v>
+      </c>
+      <c r="AH44">
+        <v>2.2452662037037037</v>
+      </c>
       <c r="AI44">
-        <v>1.9647453703703703</v>
+        <v>2.2441435185185186</v>
       </c>
       <c r="AJ44" t="s">
-        <v>435</v>
+        <v>466</v>
       </c>
       <c r="AK44" t="s">
-        <v>436</v>
+        <v>467</v>
       </c>
       <c r="AL44">
         <v>8.91</v>
       </c>
       <c r="AM44">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN44">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO44">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP44">
         <v>16.08</v>
       </c>
       <c r="AQ44">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR44">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>437</v>
+        <v>468</v>
       </c>
       <c r="B45" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C45" t="s">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="E45" s="1"/>
+        <v>470</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>459</v>
+      </c>
       <c r="F45" s="1" t="s">
-        <v>440</v>
+        <v>471</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="K45" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
+        <v>476</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>478</v>
+      </c>
       <c r="N45" s="1"/>
       <c r="O45" s="1"/>
       <c r="P45" s="1"/>
@@ -7209,74 +7586,83 @@
       <c r="Y45">
         <v>4.150659722222223</v>
       </c>
+      <c r="Z45">
+        <v>0.908900462962963</v>
+      </c>
+      <c r="AA45">
+        <v>0.4361226851851852</v>
+      </c>
+      <c r="AH45">
+        <v>93.33696759259259</v>
+      </c>
       <c r="AI45">
-        <v>14.129687500000001</v>
+        <v>15.47471064814815</v>
       </c>
       <c r="AJ45" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="AK45" t="s">
-        <v>436</v>
+        <v>467</v>
       </c>
       <c r="AL45">
         <v>2.86</v>
       </c>
       <c r="AM45">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN45">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO45">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP45">
         <v>3.04</v>
       </c>
       <c r="AQ45">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR45">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>447</v>
+        <v>480</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>448</v>
+        <v>481</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>449</v>
+        <v>482</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
-        <v>450</v>
+        <v>483</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>451</v>
+        <v>484</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>452</v>
+        <v>485</v>
       </c>
       <c r="K46" s="1" t="s">
-        <v>453</v>
+        <v>486</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>454</v>
+        <v>487</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>455</v>
+        <v>488</v>
       </c>
       <c r="N46" s="1"/>
       <c r="O46" s="1"/>
@@ -7312,77 +7698,77 @@
         <v>26.016331018518517</v>
       </c>
       <c r="AJ46" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="AL46">
         <v>5.34</v>
       </c>
       <c r="AM46">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN46">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO46">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP46">
         <v>39.08</v>
       </c>
       <c r="AQ46">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR46">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>291</v>
+        <v>316</v>
       </c>
       <c r="B47" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C47" t="s">
-        <v>456</v>
+        <v>489</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>457</v>
+        <v>490</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>458</v>
+        <v>491</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>459</v>
+        <v>492</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>460</v>
+        <v>493</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>462</v>
+        <v>495</v>
       </c>
       <c r="K47" s="1" t="s">
-        <v>463</v>
+        <v>496</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>464</v>
+        <v>497</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>465</v>
+        <v>498</v>
       </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1" t="s">
-        <v>466</v>
+        <v>499</v>
       </c>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
@@ -7421,64 +7807,64 @@
         <v>13.929039351851852</v>
       </c>
       <c r="AJ47" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="AK47" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="AL47">
         <v>13.32</v>
       </c>
       <c r="AM47">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN47">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO47">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP47">
         <v>50.13</v>
       </c>
       <c r="AQ47">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR47">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>467</v>
+        <v>500</v>
       </c>
       <c r="B48" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C48" t="s">
-        <v>468</v>
+        <v>501</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>469</v>
+        <v>502</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>471</v>
+        <v>504</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>472</v>
+        <v>505</v>
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1" t="s">
-        <v>473</v>
+        <v>506</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -7510,64 +7896,64 @@
         <v>0.00028935185185185184</v>
       </c>
       <c r="AJ48" t="s">
-        <v>474</v>
+        <v>507</v>
       </c>
       <c r="AK48" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="AL48">
         <v>12.03</v>
       </c>
       <c r="AM48">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN48">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO48">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP48">
         <v>24.79</v>
       </c>
       <c r="AQ48">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR48">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>374</v>
+        <v>399</v>
       </c>
       <c r="B49" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C49" t="s">
-        <v>475</v>
+        <v>508</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>366</v>
+        <v>391</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>476</v>
+        <v>509</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>477</v>
+        <v>510</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>478</v>
+        <v>511</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>479</v>
+        <v>512</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
-        <v>480</v>
+        <v>513</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -7599,70 +7985,70 @@
         <v>0.14979166666666666</v>
       </c>
       <c r="AJ49" t="s">
-        <v>481</v>
+        <v>514</v>
       </c>
       <c r="AK49" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="AL49">
         <v>15.49</v>
       </c>
       <c r="AM49">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN49">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO49">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP49">
         <v>48.27</v>
       </c>
       <c r="AQ49">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR49">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="B50" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s">
-        <v>482</v>
+        <v>515</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>483</v>
+        <v>516</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1" t="s">
-        <v>484</v>
+        <v>517</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>485</v>
+        <v>518</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>486</v>
+        <v>519</v>
       </c>
       <c r="K50" s="1" t="s">
-        <v>487</v>
+        <v>520</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>488</v>
+        <v>521</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>489</v>
+        <v>522</v>
       </c>
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
@@ -7698,72 +8084,72 @@
         <v>11.062650462962964</v>
       </c>
       <c r="AJ50" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="AK50" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="AL50">
         <v>1.29</v>
       </c>
       <c r="AM50">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN50">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO50">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP50">
         <v>4.29</v>
       </c>
       <c r="AQ50">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR50">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>474</v>
+        <v>507</v>
       </c>
       <c r="B51" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C51" t="s">
-        <v>491</v>
+        <v>524</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>492</v>
+        <v>525</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>493</v>
+        <v>526</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>494</v>
+        <v>527</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>495</v>
+        <v>528</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>496</v>
+        <v>529</v>
       </c>
       <c r="K51" s="1" t="s">
-        <v>497</v>
+        <v>530</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>498</v>
+        <v>531</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>499</v>
+        <v>532</v>
       </c>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
@@ -7802,68 +8188,68 @@
         <v>12.030243055555555</v>
       </c>
       <c r="AJ51" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="AK51" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="AL51">
         <v>14.81</v>
       </c>
       <c r="AM51">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN51">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO51">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP51">
         <v>33.89</v>
       </c>
       <c r="AQ51">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR51">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>364</v>
+        <v>389</v>
       </c>
       <c r="B52" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C52" t="s">
-        <v>500</v>
+        <v>533</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>501</v>
+        <v>534</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1" t="s">
-        <v>502</v>
+        <v>535</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>503</v>
+        <v>536</v>
       </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1" t="s">
-        <v>504</v>
+        <v>537</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>505</v>
+        <v>538</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>506</v>
+        <v>539</v>
       </c>
       <c r="N52" s="1"/>
       <c r="O52" s="1"/>
@@ -7896,70 +8282,70 @@
         <v>4.145428240740741</v>
       </c>
       <c r="AJ52" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="AK52" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="AL52">
         <v>15.17</v>
       </c>
       <c r="AM52">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN52">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO52">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP52">
         <v>63.21</v>
       </c>
       <c r="AQ52">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR52">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>507</v>
+        <v>540</v>
       </c>
       <c r="B53" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C53" t="s">
-        <v>508</v>
+        <v>541</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>509</v>
+        <v>542</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>510</v>
+        <v>543</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>511</v>
+        <v>544</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>512</v>
+        <v>545</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1" t="s">
-        <v>513</v>
+        <v>546</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>514</v>
+        <v>547</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>515</v>
+        <v>548</v>
       </c>
       <c r="N53" s="1"/>
       <c r="O53" s="1"/>
@@ -7995,72 +8381,72 @@
         <v>12.76255787037037</v>
       </c>
       <c r="AJ53" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="AK53" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="AL53">
         <v>14.16</v>
       </c>
       <c r="AM53">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN53">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO53">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP53">
         <v>50.97</v>
       </c>
       <c r="AQ53">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR53">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>516</v>
+        <v>549</v>
       </c>
       <c r="B54" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C54" t="s">
-        <v>517</v>
+        <v>550</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>518</v>
+        <v>551</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>519</v>
+        <v>552</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>520</v>
+        <v>553</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>521</v>
+        <v>554</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>522</v>
+        <v>555</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>523</v>
+        <v>556</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>524</v>
+        <v>557</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>525</v>
+        <v>558</v>
       </c>
       <c r="N54" s="1"/>
       <c r="O54" s="1"/>
@@ -8099,65 +8485,65 @@
         <v>11.970011574074075</v>
       </c>
       <c r="AJ54" t="s">
-        <v>507</v>
+        <v>540</v>
       </c>
       <c r="AK54" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="AL54">
         <v>12.76</v>
       </c>
       <c r="AM54">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN54">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO54">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP54">
         <v>48.92</v>
       </c>
       <c r="AQ54">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR54">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>526</v>
+        <v>559</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C55" t="s">
-        <v>527</v>
+        <v>560</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>528</v>
+        <v>561</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1" t="s">
-        <v>529</v>
+        <v>562</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>530</v>
+        <v>563</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1" t="s">
-        <v>531</v>
+        <v>564</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>532</v>
+        <v>565</v>
       </c>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
@@ -8188,59 +8574,65 @@
         <v>11.002662037037037</v>
       </c>
       <c r="AJ55" t="s">
-        <v>533</v>
+        <v>566</v>
       </c>
       <c r="AK55" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="AL55">
         <v>14.04</v>
       </c>
       <c r="AM55">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN55">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO55">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP55">
         <v>14.27</v>
       </c>
       <c r="AQ55">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR55">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>534</v>
+        <v>567</v>
       </c>
       <c r="B56" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C56" t="s">
-        <v>535</v>
+        <v>568</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E56" s="1"/>
+        <v>259</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="F56" s="1" t="s">
-        <v>536</v>
+        <v>569</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1" t="s">
-        <v>537</v>
+        <v>570</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>538</v>
-      </c>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
+        <v>571</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>573</v>
+      </c>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
@@ -8258,74 +8650,83 @@
       <c r="W56">
         <v>4.285393518518519</v>
       </c>
+      <c r="X56">
+        <v>4.798171296296296</v>
+      </c>
+      <c r="Y56">
+        <v>0.8828703703703704</v>
+      </c>
+      <c r="AH56">
+        <v>37.722511574074076</v>
+      </c>
       <c r="AI56">
-        <v>4.285393518518519</v>
+        <v>9.966435185185183</v>
       </c>
       <c r="AJ56" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="AK56" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="AL56">
         <v>9.02</v>
       </c>
       <c r="AM56">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN56">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO56">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP56">
         <v>9.04</v>
       </c>
       <c r="AQ56">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR56">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>540</v>
+        <v>575</v>
       </c>
       <c r="B57" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C57" t="s">
-        <v>541</v>
+        <v>576</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>542</v>
+        <v>577</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1" t="s">
-        <v>543</v>
+        <v>578</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>544</v>
+        <v>579</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>545</v>
+        <v>580</v>
       </c>
       <c r="K57" s="1" t="s">
-        <v>546</v>
+        <v>581</v>
       </c>
       <c r="L57" s="1" t="s">
-        <v>547</v>
+        <v>582</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>548</v>
+        <v>583</v>
       </c>
       <c r="N57" s="1"/>
       <c r="O57" s="1"/>
@@ -8361,61 +8762,65 @@
         <v>11.981354166666666</v>
       </c>
       <c r="AJ57" t="s">
-        <v>549</v>
+        <v>584</v>
       </c>
       <c r="AK57" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="AL57">
         <v>8.83</v>
       </c>
       <c r="AM57">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN57">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO57">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP57">
         <v>8.84</v>
       </c>
       <c r="AQ57">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR57">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>550</v>
+        <v>585</v>
       </c>
       <c r="B58" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>551</v>
+        <v>586</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E58" s="1"/>
+        <v>127</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>459</v>
+      </c>
       <c r="F58" s="1" t="s">
-        <v>552</v>
+        <v>587</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1" t="s">
-        <v>553</v>
+        <v>588</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>554</v>
+        <v>589</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>555</v>
-      </c>
-      <c r="K58" s="1"/>
+        <v>590</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>591</v>
+      </c>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
@@ -8436,76 +8841,82 @@
       <c r="X58">
         <v>5.755439814814815</v>
       </c>
+      <c r="Y58">
+        <v>0.18582175925925926</v>
+      </c>
+      <c r="AH58">
+        <v>42.836597222222224</v>
+      </c>
       <c r="AI58">
-        <v>7.020914351851852</v>
+        <v>7.206736111111111</v>
       </c>
       <c r="AJ58" t="s">
-        <v>556</v>
+        <v>592</v>
       </c>
       <c r="AK58" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="AL58">
         <v>8.83</v>
       </c>
       <c r="AM58">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN58">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO58">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP58">
         <v>8.84</v>
       </c>
       <c r="AQ58">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR58">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="B59" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C59" t="s">
-        <v>557</v>
+        <v>593</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>558</v>
+        <v>594</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>559</v>
+        <v>595</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>560</v>
+        <v>596</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>561</v>
+        <v>597</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>562</v>
+        <v>598</v>
       </c>
       <c r="K59" s="1" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="L59" s="1" t="s">
-        <v>564</v>
+        <v>600</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>565</v>
+        <v>601</v>
       </c>
       <c r="N59" s="1"/>
       <c r="O59" s="1"/>
@@ -8544,72 +8955,72 @@
         <v>6.050891203703704</v>
       </c>
       <c r="AJ59" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="AK59" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="AL59">
         <v>15.95</v>
       </c>
       <c r="AM59">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN59">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO59">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP59">
         <v>34.89</v>
       </c>
       <c r="AQ59">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR59">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C60" t="s">
-        <v>566</v>
+        <v>602</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>567</v>
+        <v>603</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>568</v>
+        <v>604</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>569</v>
+        <v>605</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>570</v>
+        <v>606</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>571</v>
+        <v>607</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>572</v>
+        <v>608</v>
       </c>
       <c r="L60" s="1" t="s">
-        <v>573</v>
+        <v>609</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>574</v>
+        <v>610</v>
       </c>
       <c r="N60" s="1"/>
       <c r="O60" s="1"/>
@@ -8648,63 +9059,69 @@
         <v>5.893217592592593</v>
       </c>
       <c r="AJ60" t="s">
-        <v>575</v>
+        <v>611</v>
       </c>
       <c r="AK60" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="AL60">
         <v>6.02</v>
       </c>
       <c r="AM60">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN60">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO60">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP60">
         <v>9.02</v>
       </c>
       <c r="AQ60">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR60">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>576</v>
+        <v>612</v>
       </c>
       <c r="B61" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C61" t="s">
-        <v>577</v>
+        <v>613</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E61" s="1"/>
+        <v>211</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>135</v>
+      </c>
       <c r="F61" s="1" t="s">
-        <v>578</v>
+        <v>614</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1" t="s">
-        <v>579</v>
+        <v>615</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>580</v>
+        <v>616</v>
       </c>
       <c r="J61" s="1"/>
       <c r="K61" s="1" t="s">
-        <v>581</v>
-      </c>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
+        <v>617</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="M61" s="1" t="s">
+        <v>619</v>
+      </c>
       <c r="N61" s="1"/>
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
@@ -8723,75 +9140,84 @@
       <c r="Y61">
         <v>1.160810185185185</v>
       </c>
+      <c r="Z61">
+        <v>0.8964814814814814</v>
+      </c>
+      <c r="AA61">
+        <v>0.46947916666666667</v>
+      </c>
+      <c r="AH61">
+        <v>14.526087962962963</v>
+      </c>
       <c r="AI61">
-        <v>4.027222222222222</v>
+        <v>5.39318287037037</v>
       </c>
       <c r="AJ61" t="s">
-        <v>376</v>
+        <v>401</v>
       </c>
       <c r="AK61" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="AL61">
         <v>5.07</v>
       </c>
       <c r="AM61">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN61">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO61">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP61">
         <v>123.32</v>
       </c>
       <c r="AQ61">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR61">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>404</v>
+        <v>429</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>582</v>
+        <v>620</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>583</v>
+        <v>621</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>584</v>
+        <v>622</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>585</v>
+        <v>623</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>586</v>
+        <v>624</v>
       </c>
       <c r="J62" s="1"/>
       <c r="K62" s="1" t="s">
-        <v>587</v>
+        <v>625</v>
       </c>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1"/>
       <c r="P62" s="1" t="s">
-        <v>588</v>
+        <v>626</v>
       </c>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -8821,55 +9247,59 @@
         <v>6.744722222222222</v>
       </c>
       <c r="AJ62" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="AK62" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="AL62">
         <v>5.94</v>
       </c>
       <c r="AM62">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN62">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO62">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP62">
         <v>97.66</v>
       </c>
       <c r="AQ62">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR62">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>589</v>
+        <v>627</v>
       </c>
       <c r="B63" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>582</v>
+        <v>628</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>590</v>
+        <v>629</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1"/>
+        <v>630</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>632</v>
+      </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
@@ -8886,66 +9316,72 @@
       <c r="U63">
         <v>0.00011574074074074075</v>
       </c>
+      <c r="V63">
+        <v>42.83732638888889</v>
+      </c>
+      <c r="W63">
+        <v>0.0005324074074074074</v>
+      </c>
       <c r="AI63">
-        <v>0</v>
+        <v>0.0005324074074074074</v>
       </c>
       <c r="AJ63" t="s">
-        <v>386</v>
+        <v>411</v>
       </c>
       <c r="AK63" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="AL63">
         <v>16.78</v>
       </c>
       <c r="AM63">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN63">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO63">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP63">
         <v>69.98</v>
       </c>
       <c r="AQ63">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR63">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>270</v>
+        <v>295</v>
       </c>
       <c r="B64" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C64" t="s">
-        <v>592</v>
+        <v>633</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>593</v>
+        <v>634</v>
       </c>
       <c r="G64" s="1"/>
       <c r="H64" s="1" t="s">
-        <v>594</v>
+        <v>635</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>595</v>
+        <v>636</v>
       </c>
       <c r="J64" s="1"/>
       <c r="K64" s="1" t="s">
-        <v>596</v>
+        <v>637</v>
       </c>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
@@ -8974,54 +9410,54 @@
         <v>2.0066319444444445</v>
       </c>
       <c r="AJ64" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="AK64" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="AL64">
         <v>8.14</v>
       </c>
       <c r="AM64">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN64">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO64">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP64">
         <v>119.16</v>
       </c>
       <c r="AQ64">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR64">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>597</v>
+        <v>638</v>
       </c>
       <c r="B65" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C65" t="s">
-        <v>598</v>
+        <v>639</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>599</v>
+        <v>640</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>600</v>
+        <v>641</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -9032,7 +9468,7 @@
       <c r="N65" s="1"/>
       <c r="O65" s="1"/>
       <c r="P65" s="1" t="s">
-        <v>601</v>
+        <v>642</v>
       </c>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
@@ -9053,64 +9489,64 @@
         <v>0</v>
       </c>
       <c r="AJ65" t="s">
-        <v>126</v>
+        <v>145</v>
       </c>
       <c r="AK65" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="AL65">
         <v>7.41</v>
       </c>
       <c r="AM65">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN65">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO65">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP65">
         <v>168.97</v>
       </c>
       <c r="AQ65">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR65">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="66" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>602</v>
+        <v>643</v>
       </c>
       <c r="B66" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C66" t="s">
-        <v>592</v>
+        <v>633</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>603</v>
+        <v>644</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>604</v>
+        <v>645</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>605</v>
+        <v>646</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>606</v>
+        <v>647</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1" t="s">
-        <v>607</v>
+        <v>648</v>
       </c>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
@@ -9142,72 +9578,72 @@
         <v>0.0060185185185185185</v>
       </c>
       <c r="AJ66" t="s">
-        <v>608</v>
+        <v>649</v>
       </c>
       <c r="AK66" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="AL66">
         <v>15.82</v>
       </c>
       <c r="AM66">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN66">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO66">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP66">
         <v>15.95</v>
       </c>
       <c r="AQ66">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR66">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>435</v>
+        <v>466</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C67" t="s">
-        <v>609</v>
+        <v>650</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>436</v>
+        <v>467</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>610</v>
+        <v>651</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>611</v>
+        <v>652</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>612</v>
+        <v>653</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>613</v>
+        <v>654</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>614</v>
+        <v>655</v>
       </c>
       <c r="K67" s="1" t="s">
-        <v>615</v>
+        <v>656</v>
       </c>
       <c r="L67" s="1" t="s">
-        <v>616</v>
+        <v>657</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>617</v>
+        <v>658</v>
       </c>
       <c r="N67" s="1"/>
       <c r="O67" s="1"/>
@@ -9246,56 +9682,56 @@
         <v>8.912777777777777</v>
       </c>
       <c r="AJ67" t="s">
-        <v>618</v>
+        <v>659</v>
       </c>
       <c r="AK67" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="AL67">
         <v>1.36</v>
       </c>
       <c r="AM67">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN67">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO67">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP67">
         <v>2.12</v>
       </c>
       <c r="AQ67">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR67">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="68" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>619</v>
+        <v>660</v>
       </c>
       <c r="B68" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C68" t="s">
-        <v>620</v>
+        <v>661</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="E68" s="1"/>
       <c r="F68" s="1" t="s">
-        <v>621</v>
+        <v>662</v>
       </c>
       <c r="G68" s="1"/>
       <c r="H68" s="1" t="s">
-        <v>622</v>
+        <v>663</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>623</v>
+        <v>664</v>
       </c>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
@@ -9320,53 +9756,53 @@
         <v>0.08928240740740741</v>
       </c>
       <c r="AJ68" t="s">
-        <v>624</v>
+        <v>665</v>
       </c>
       <c r="AK68" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="AL68">
         <v>8.94</v>
       </c>
       <c r="AM68">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN68">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO68">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP68">
         <v>9.13</v>
       </c>
       <c r="AQ68">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR68">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>625</v>
+        <v>666</v>
       </c>
       <c r="B69" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C69" t="s">
-        <v>626</v>
+        <v>667</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>627</v>
+        <v>668</v>
       </c>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>628</v>
+        <v>669</v>
       </c>
       <c r="G69" s="1"/>
       <c r="H69" s="1" t="s">
-        <v>629</v>
+        <v>670</v>
       </c>
       <c r="I69" s="1"/>
       <c r="J69" s="1"/>
@@ -9376,10 +9812,10 @@
       <c r="N69" s="1"/>
       <c r="O69" s="1"/>
       <c r="P69" s="1" t="s">
-        <v>630</v>
+        <v>671</v>
       </c>
       <c r="Q69" s="1" t="s">
-        <v>631</v>
+        <v>672</v>
       </c>
       <c r="R69" s="1"/>
       <c r="S69" s="1"/>
@@ -9399,73 +9835,73 @@
         <v>0</v>
       </c>
       <c r="AJ69" t="s">
-        <v>632</v>
+        <v>673</v>
       </c>
       <c r="AK69" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="AL69">
         <v>1.61</v>
       </c>
       <c r="AM69">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN69">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO69">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP69">
         <v>1.61</v>
       </c>
       <c r="AQ69">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR69">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>481</v>
+        <v>514</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C70" t="s">
-        <v>633</v>
+        <v>674</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>634</v>
+        <v>675</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>635</v>
+        <v>676</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>636</v>
+        <v>677</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>637</v>
+        <v>678</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1" t="s">
-        <v>638</v>
+        <v>679</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>639</v>
+        <v>680</v>
       </c>
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1" t="s">
-        <v>640</v>
+        <v>681</v>
       </c>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
@@ -9498,62 +9934,62 @@
         <v>15.490416666666667</v>
       </c>
       <c r="AJ70" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="AK70" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="AL70">
         <v>1.93</v>
       </c>
       <c r="AM70">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN70">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO70">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP70">
         <v>2.13</v>
       </c>
       <c r="AQ70">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR70">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="71" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>641</v>
+        <v>682</v>
       </c>
       <c r="B71" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C71" t="s">
-        <v>642</v>
+        <v>683</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>643</v>
+        <v>684</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1" t="s">
-        <v>644</v>
+        <v>685</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>645</v>
+        <v>686</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1" t="s">
-        <v>646</v>
+        <v>687</v>
       </c>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
@@ -9582,70 +10018,70 @@
         <v>0.003425925925925926</v>
       </c>
       <c r="AJ71" t="s">
-        <v>647</v>
+        <v>549</v>
       </c>
       <c r="AK71" t="s">
-        <v>53</v>
+        <v>458</v>
       </c>
       <c r="AL71">
-        <v>0.07</v>
+        <v>11.97</v>
       </c>
       <c r="AM71">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN71">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO71">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP71">
-        <v>0.07</v>
+        <v>44.7</v>
       </c>
       <c r="AQ71">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR71">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="B72" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C72" t="s">
-        <v>648</v>
+        <v>688</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>649</v>
+        <v>689</v>
       </c>
       <c r="G72" s="1"/>
       <c r="H72" s="1" t="s">
-        <v>650</v>
+        <v>690</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>651</v>
+        <v>691</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>652</v>
+        <v>692</v>
       </c>
       <c r="K72" s="1" t="s">
-        <v>653</v>
+        <v>693</v>
       </c>
       <c r="L72" s="1" t="s">
-        <v>654</v>
+        <v>694</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>655</v>
+        <v>695</v>
       </c>
       <c r="N72" s="1"/>
       <c r="O72" s="1"/>
@@ -9681,70 +10117,70 @@
         <v>0.7286921296296296</v>
       </c>
       <c r="AJ72" t="s">
-        <v>516</v>
+        <v>559</v>
       </c>
       <c r="AK72" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="AL72">
-        <v>11.97</v>
+        <v>11</v>
       </c>
       <c r="AM72">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN72">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO72">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP72">
-        <v>44.7</v>
+        <v>34.77</v>
       </c>
       <c r="AQ72">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR72">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>533</v>
+        <v>566</v>
       </c>
       <c r="B73" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C73" t="s">
-        <v>656</v>
+        <v>696</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>657</v>
+        <v>697</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>658</v>
+        <v>698</v>
       </c>
       <c r="G73" s="1"/>
       <c r="H73" s="1" t="s">
-        <v>659</v>
+        <v>699</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>660</v>
+        <v>700</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>661</v>
+        <v>701</v>
       </c>
       <c r="K73" s="1" t="s">
-        <v>662</v>
+        <v>702</v>
       </c>
       <c r="L73" s="1" t="s">
-        <v>663</v>
+        <v>703</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>664</v>
+        <v>704</v>
       </c>
       <c r="N73" s="1"/>
       <c r="O73" s="1"/>
@@ -9780,64 +10216,64 @@
         <v>14.0359375</v>
       </c>
       <c r="AJ73" t="s">
-        <v>526</v>
+        <v>575</v>
       </c>
       <c r="AK73" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="AL73">
-        <v>11</v>
+        <v>11.98</v>
       </c>
       <c r="AM73">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN73">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO73">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP73">
-        <v>34.77</v>
+        <v>45.8</v>
       </c>
       <c r="AQ73">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR73">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="74" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>575</v>
+        <v>611</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C74" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>666</v>
+        <v>706</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>667</v>
+        <v>707</v>
       </c>
       <c r="G74" s="1"/>
       <c r="H74" s="1" t="s">
-        <v>668</v>
+        <v>708</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>669</v>
+        <v>709</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>670</v>
+        <v>710</v>
       </c>
       <c r="K74" s="1" t="s">
-        <v>671</v>
+        <v>711</v>
       </c>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
@@ -9869,70 +10305,70 @@
         <v>6.020844907407406</v>
       </c>
       <c r="AJ74" t="s">
-        <v>540</v>
+        <v>712</v>
       </c>
       <c r="AK74" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="AL74">
-        <v>11.98</v>
+        <v>3.79</v>
       </c>
       <c r="AM74">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN74">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO74">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP74">
-        <v>45.8</v>
+        <v>33.02</v>
       </c>
       <c r="AQ74">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR74">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="75" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>608</v>
+        <v>649</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C75" t="s">
-        <v>672</v>
+        <v>713</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>323</v>
+        <v>348</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>673</v>
+        <v>714</v>
       </c>
       <c r="G75" s="1"/>
       <c r="H75" s="1" t="s">
-        <v>674</v>
+        <v>715</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>675</v>
+        <v>716</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>676</v>
+        <v>717</v>
       </c>
       <c r="K75" s="1" t="s">
-        <v>677</v>
+        <v>718</v>
       </c>
       <c r="L75" s="1" t="s">
-        <v>678</v>
+        <v>719</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>679</v>
+        <v>720</v>
       </c>
       <c r="N75" s="1"/>
       <c r="O75" s="1"/>
@@ -9968,63 +10404,69 @@
         <v>15.820659722222222</v>
       </c>
       <c r="AJ75" t="s">
-        <v>680</v>
+        <v>721</v>
       </c>
       <c r="AK75" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="AL75">
-        <v>3.79</v>
+        <v>10</v>
       </c>
       <c r="AM75">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN75">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO75">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP75">
-        <v>33.02</v>
+        <v>11.03</v>
       </c>
       <c r="AQ75">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR75">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="76" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>681</v>
+        <v>722</v>
       </c>
       <c r="B76" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C76" t="s">
-        <v>682</v>
+        <v>723</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E76" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>459</v>
+      </c>
       <c r="F76" s="1" t="s">
-        <v>683</v>
+        <v>724</v>
       </c>
       <c r="G76" s="1"/>
       <c r="H76" s="1" t="s">
-        <v>684</v>
+        <v>725</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>685</v>
+        <v>726</v>
       </c>
       <c r="J76" s="1"/>
       <c r="K76" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
+        <v>727</v>
+      </c>
+      <c r="L76" s="1" t="s">
+        <v>728</v>
+      </c>
+      <c r="M76" s="1" t="s">
+        <v>729</v>
+      </c>
       <c r="N76" s="1"/>
       <c r="O76" s="1"/>
       <c r="P76" s="1"/>
@@ -10043,59 +10485,68 @@
       <c r="Y76">
         <v>3.0052430555555554</v>
       </c>
+      <c r="Z76">
+        <v>1.8560416666666666</v>
+      </c>
+      <c r="AA76">
+        <v>0.15512731481481482</v>
+      </c>
+      <c r="AH76">
+        <v>8.002673611111112</v>
+      </c>
       <c r="AI76">
-        <v>3.2286805555555556</v>
+        <v>5.239849537037037</v>
       </c>
       <c r="AJ76" t="s">
-        <v>687</v>
+        <v>730</v>
       </c>
       <c r="AK76" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="AL76">
-        <v>10</v>
+        <v>3.78</v>
       </c>
       <c r="AM76">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN76">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO76">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP76">
-        <v>11.03</v>
+        <v>4.96</v>
       </c>
       <c r="AQ76">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR76">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="77" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
       <c r="B77" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C77" t="s">
-        <v>689</v>
+        <v>732</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>690</v>
+        <v>733</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>691</v>
+        <v>734</v>
       </c>
       <c r="G77" s="1"/>
       <c r="H77" s="1" t="s">
-        <v>692</v>
+        <v>735</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
@@ -10121,68 +10572,68 @@
         <v>0</v>
       </c>
       <c r="AJ77" t="s">
-        <v>693</v>
+        <v>456</v>
       </c>
       <c r="AK77" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="AL77">
-        <v>3.78</v>
+        <v>2.24</v>
       </c>
       <c r="AM77">
-        <v>1.8982175925925926</v>
+        <v>1.9631874999999999</v>
       </c>
       <c r="AN77">
-        <v>6.744722222222222</v>
+        <v>7.077928240740741</v>
       </c>
       <c r="AO77">
-        <v>13.193333333333332</v>
+        <v>13.143916666666666</v>
       </c>
       <c r="AP77">
-        <v>4.96</v>
+        <v>2.25</v>
       </c>
       <c r="AQ77">
-        <v>15.170775462962963</v>
+        <v>15.951828703703704</v>
       </c>
       <c r="AR77">
-        <v>46.39083912037037</v>
+        <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="B78" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C78" t="s">
-        <v>694</v>
+        <v>736</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>695</v>
+        <v>737</v>
       </c>
       <c r="G78" s="1"/>
       <c r="H78" s="1" t="s">
-        <v>696</v>
+        <v>738</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>697</v>
+        <v>739</v>
       </c>
       <c r="J78" s="1"/>
       <c r="K78" s="1" t="s">
-        <v>698</v>
+        <v>740</v>
       </c>
       <c r="L78" s="1" t="s">
-        <v>699</v>
+        <v>741</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>700</v>
+        <v>742</v>
       </c>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
@@ -10214,42 +10665,69 @@
       <c r="AI78">
         <v>3.9666782407407406</v>
       </c>
+      <c r="AJ78" t="s">
+        <v>468</v>
+      </c>
+      <c r="AK78" t="s">
+        <v>459</v>
+      </c>
+      <c r="AL78">
+        <v>15.47</v>
+      </c>
+      <c r="AM78">
+        <v>1.9631874999999999</v>
+      </c>
+      <c r="AN78">
+        <v>7.077928240740741</v>
+      </c>
+      <c r="AO78">
+        <v>13.143916666666666</v>
+      </c>
+      <c r="AP78">
+        <v>93.34</v>
+      </c>
+      <c r="AQ78">
+        <v>15.951828703703704</v>
+      </c>
+      <c r="AR78">
+        <v>46.15642476851851</v>
+      </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="B79" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C79" t="s">
-        <v>701</v>
+        <v>743</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>702</v>
+        <v>744</v>
       </c>
       <c r="G79" s="1"/>
       <c r="H79" s="1" t="s">
-        <v>703</v>
+        <v>745</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>704</v>
+        <v>746</v>
       </c>
       <c r="J79" s="1"/>
       <c r="K79" s="1" t="s">
-        <v>705</v>
+        <v>747</v>
       </c>
       <c r="L79" s="1" t="s">
-        <v>706</v>
+        <v>748</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>707</v>
+        <v>749</v>
       </c>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
@@ -10281,42 +10759,69 @@
       <c r="AI79">
         <v>7.673761574074074</v>
       </c>
+      <c r="AJ79" t="s">
+        <v>585</v>
+      </c>
+      <c r="AK79" t="s">
+        <v>459</v>
+      </c>
+      <c r="AL79">
+        <v>7.21</v>
+      </c>
+      <c r="AM79">
+        <v>1.9631874999999999</v>
+      </c>
+      <c r="AN79">
+        <v>7.077928240740741</v>
+      </c>
+      <c r="AO79">
+        <v>13.143916666666666</v>
+      </c>
+      <c r="AP79">
+        <v>42.84</v>
+      </c>
+      <c r="AQ79">
+        <v>15.951828703703704</v>
+      </c>
+      <c r="AR79">
+        <v>46.15642476851851</v>
+      </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="B80" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C80" t="s">
-        <v>708</v>
+        <v>750</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>709</v>
+        <v>751</v>
       </c>
       <c r="G80" s="1"/>
       <c r="H80" s="1" t="s">
-        <v>710</v>
+        <v>752</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>711</v>
+        <v>753</v>
       </c>
       <c r="J80" s="1"/>
       <c r="K80" s="1" t="s">
-        <v>712</v>
+        <v>754</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>713</v>
+        <v>755</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>714</v>
+        <v>756</v>
       </c>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
@@ -10348,42 +10853,69 @@
       <c r="AI80">
         <v>0.1003125</v>
       </c>
+      <c r="AJ80" t="s">
+        <v>722</v>
+      </c>
+      <c r="AK80" t="s">
+        <v>459</v>
+      </c>
+      <c r="AL80">
+        <v>5.24</v>
+      </c>
+      <c r="AM80">
+        <v>1.9631874999999999</v>
+      </c>
+      <c r="AN80">
+        <v>7.077928240740741</v>
+      </c>
+      <c r="AO80">
+        <v>13.143916666666666</v>
+      </c>
+      <c r="AP80">
+        <v>8</v>
+      </c>
+      <c r="AQ80">
+        <v>15.951828703703704</v>
+      </c>
+      <c r="AR80">
+        <v>46.15642476851851</v>
+      </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>385</v>
+        <v>410</v>
       </c>
       <c r="B81" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C81" t="s">
-        <v>715</v>
+        <v>757</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>716</v>
+        <v>758</v>
       </c>
       <c r="G81" s="1"/>
       <c r="H81" s="1" t="s">
-        <v>717</v>
+        <v>759</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>718</v>
+        <v>760</v>
       </c>
       <c r="J81" s="1"/>
       <c r="K81" s="1" t="s">
-        <v>719</v>
+        <v>761</v>
       </c>
       <c r="L81" s="1" t="s">
-        <v>720</v>
+        <v>762</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>721</v>
+        <v>763</v>
       </c>
       <c r="N81" s="1"/>
       <c r="O81" s="1"/>
@@ -10415,42 +10947,69 @@
       <c r="AI81">
         <v>4.040729166666667</v>
       </c>
+      <c r="AJ81" t="s">
+        <v>132</v>
+      </c>
+      <c r="AK81" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL81">
+        <v>8.5</v>
+      </c>
+      <c r="AM81">
+        <v>1.9631874999999999</v>
+      </c>
+      <c r="AN81">
+        <v>7.077928240740741</v>
+      </c>
+      <c r="AO81">
+        <v>13.143916666666666</v>
+      </c>
+      <c r="AP81">
+        <v>20.5</v>
+      </c>
+      <c r="AQ81">
+        <v>15.951828703703704</v>
+      </c>
+      <c r="AR81">
+        <v>46.15642476851851</v>
+      </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>618</v>
+        <v>659</v>
       </c>
       <c r="B82" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C82" t="s">
-        <v>722</v>
+        <v>764</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>723</v>
+        <v>765</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>724</v>
+        <v>766</v>
       </c>
       <c r="G82" s="1"/>
       <c r="H82" s="1" t="s">
-        <v>725</v>
+        <v>767</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>726</v>
+        <v>768</v>
       </c>
       <c r="J82" s="1"/>
       <c r="K82" s="1" t="s">
-        <v>727</v>
+        <v>769</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>728</v>
+        <v>770</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>729</v>
+        <v>771</v>
       </c>
       <c r="N82" s="1"/>
       <c r="O82" s="1"/>
@@ -10482,36 +11041,63 @@
       <c r="AI82">
         <v>1.361701388888889</v>
       </c>
+      <c r="AJ82" t="s">
+        <v>567</v>
+      </c>
+      <c r="AK82" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL82">
+        <v>9.97</v>
+      </c>
+      <c r="AM82">
+        <v>1.9631874999999999</v>
+      </c>
+      <c r="AN82">
+        <v>7.077928240740741</v>
+      </c>
+      <c r="AO82">
+        <v>13.143916666666666</v>
+      </c>
+      <c r="AP82">
+        <v>37.72</v>
+      </c>
+      <c r="AQ82">
+        <v>15.951828703703704</v>
+      </c>
+      <c r="AR82">
+        <v>46.15642476851851</v>
+      </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>412</v>
+        <v>437</v>
       </c>
       <c r="B83" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="C83" t="s">
-        <v>730</v>
+        <v>772</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>731</v>
+        <v>773</v>
       </c>
       <c r="G83" s="1"/>
       <c r="H83" s="1" t="s">
-        <v>732</v>
+        <v>774</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>733</v>
+        <v>775</v>
       </c>
       <c r="J83" s="1"/>
       <c r="K83" s="1" t="s">
-        <v>734</v>
+        <v>776</v>
       </c>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
@@ -10539,42 +11125,69 @@
       <c r="AI83">
         <v>2.9627777777777777</v>
       </c>
+      <c r="AJ83" t="s">
+        <v>612</v>
+      </c>
+      <c r="AK83" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL83">
+        <v>5.39</v>
+      </c>
+      <c r="AM83">
+        <v>1.9631874999999999</v>
+      </c>
+      <c r="AN83">
+        <v>7.077928240740741</v>
+      </c>
+      <c r="AO83">
+        <v>13.143916666666666</v>
+      </c>
+      <c r="AP83">
+        <v>14.53</v>
+      </c>
+      <c r="AQ83">
+        <v>15.951828703703704</v>
+      </c>
+      <c r="AR83">
+        <v>46.15642476851851</v>
+      </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>139</v>
+        <v>158</v>
       </c>
       <c r="B84" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C84" t="s">
-        <v>735</v>
+        <v>777</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>293</v>
+        <v>318</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>736</v>
+        <v>778</v>
       </c>
       <c r="G84" s="1"/>
       <c r="H84" s="1" t="s">
-        <v>737</v>
+        <v>779</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>738</v>
+        <v>780</v>
       </c>
       <c r="J84" s="1"/>
       <c r="K84" s="1" t="s">
-        <v>739</v>
+        <v>781</v>
       </c>
       <c r="L84" s="1" t="s">
-        <v>740</v>
+        <v>782</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>741</v>
+        <v>783</v>
       </c>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
@@ -10607,38 +11220,38 @@
         <v>3.145115740740741</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>680</v>
+        <v>712</v>
       </c>
       <c r="B85" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C85" t="s">
-        <v>742</v>
+        <v>784</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>657</v>
+        <v>697</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>743</v>
+        <v>785</v>
       </c>
       <c r="G85" s="1"/>
       <c r="H85" s="1" t="s">
-        <v>744</v>
+        <v>786</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>745</v>
+        <v>787</v>
       </c>
       <c r="J85" s="1"/>
       <c r="K85" s="1" t="s">
-        <v>746</v>
+        <v>788</v>
       </c>
       <c r="L85" s="1" t="s">
-        <v>747</v>
+        <v>789</v>
       </c>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
@@ -10669,43 +11282,43 @@
         <v>3.7902199074074074</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="B86" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C86" t="s">
-        <v>748</v>
+        <v>790</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>749</v>
+        <v>791</v>
       </c>
       <c r="G86" s="1"/>
       <c r="H86" s="1" t="s">
-        <v>750</v>
+        <v>792</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>751</v>
+        <v>793</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>752</v>
+        <v>794</v>
       </c>
       <c r="K86" s="1" t="s">
-        <v>753</v>
+        <v>795</v>
       </c>
       <c r="L86" s="1" t="s">
-        <v>754</v>
+        <v>796</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>755</v>
+        <v>797</v>
       </c>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
@@ -10741,41 +11354,41 @@
         <v>3.275324074074074</v>
       </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="B87" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C87" t="s">
-        <v>756</v>
+        <v>798</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>757</v>
+        <v>799</v>
       </c>
       <c r="G87" s="1"/>
       <c r="H87" s="1" t="s">
-        <v>758</v>
+        <v>800</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>759</v>
+        <v>801</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1" t="s">
-        <v>760</v>
+        <v>802</v>
       </c>
       <c r="L87" s="1" t="s">
-        <v>761</v>
+        <v>803</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>762</v>
+        <v>804</v>
       </c>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
@@ -10808,43 +11421,43 @@
         <v>3.225173611111111</v>
       </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="B88" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C88" t="s">
-        <v>763</v>
+        <v>805</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>334</v>
+        <v>359</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>764</v>
+        <v>806</v>
       </c>
       <c r="G88" s="1"/>
       <c r="H88" s="1" t="s">
-        <v>765</v>
+        <v>807</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>766</v>
+        <v>808</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>767</v>
+        <v>809</v>
       </c>
       <c r="K88" s="1" t="s">
-        <v>768</v>
+        <v>810</v>
       </c>
       <c r="L88" s="1" t="s">
-        <v>769</v>
+        <v>811</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>770</v>
+        <v>812</v>
       </c>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
@@ -10880,24 +11493,24 @@
         <v>1.0134606481481483</v>
       </c>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>771</v>
+        <v>813</v>
       </c>
       <c r="B89" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C89" t="s">
-        <v>772</v>
+        <v>814</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>773</v>
+        <v>815</v>
       </c>
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
@@ -10922,43 +11535,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="B90" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>774</v>
+        <v>816</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>775</v>
+        <v>817</v>
       </c>
       <c r="G90" s="1"/>
       <c r="H90" s="1" t="s">
-        <v>776</v>
+        <v>818</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>777</v>
+        <v>819</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>778</v>
+        <v>820</v>
       </c>
       <c r="K90" s="1" t="s">
-        <v>779</v>
+        <v>821</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>780</v>
+        <v>822</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>781</v>
+        <v>823</v>
       </c>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
@@ -10994,43 +11607,43 @@
         <v>1.3085185185185184</v>
       </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>341</v>
+        <v>366</v>
       </c>
       <c r="B91" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>782</v>
+        <v>824</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>783</v>
+        <v>825</v>
       </c>
       <c r="G91" s="1"/>
       <c r="H91" s="1" t="s">
-        <v>784</v>
+        <v>826</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>785</v>
+        <v>827</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>786</v>
+        <v>828</v>
       </c>
       <c r="K91" s="1" t="s">
-        <v>787</v>
+        <v>829</v>
       </c>
       <c r="L91" s="1" t="s">
-        <v>788</v>
+        <v>830</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>789</v>
+        <v>831</v>
       </c>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
@@ -11066,41 +11679,41 @@
         <v>1.888125</v>
       </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="B92" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C92" t="s">
-        <v>790</v>
+        <v>832</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>791</v>
+        <v>833</v>
       </c>
       <c r="G92" s="1"/>
       <c r="H92" s="1" t="s">
-        <v>792</v>
+        <v>834</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>793</v>
+        <v>835</v>
       </c>
       <c r="J92" s="1"/>
       <c r="K92" s="1" t="s">
-        <v>794</v>
+        <v>836</v>
       </c>
       <c r="L92" s="1" t="s">
-        <v>795</v>
+        <v>837</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>796</v>
+        <v>838</v>
       </c>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
@@ -11133,41 +11746,41 @@
         <v>2.079340277777778</v>
       </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>446</v>
+        <v>479</v>
       </c>
       <c r="B93" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C93" t="s">
-        <v>797</v>
+        <v>839</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>798</v>
+        <v>840</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>436</v>
+        <v>467</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>799</v>
+        <v>841</v>
       </c>
       <c r="G93" s="1"/>
       <c r="H93" s="1" t="s">
-        <v>800</v>
+        <v>842</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>801</v>
+        <v>843</v>
       </c>
       <c r="J93" s="1"/>
       <c r="K93" s="1" t="s">
-        <v>802</v>
+        <v>844</v>
       </c>
       <c r="L93" s="1" t="s">
-        <v>803</v>
+        <v>845</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>804</v>
+        <v>846</v>
       </c>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
@@ -11200,24 +11813,24 @@
         <v>2.860601851851852</v>
       </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>805</v>
+        <v>847</v>
       </c>
       <c r="B94" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C94" t="s">
-        <v>806</v>
+        <v>848</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>798</v>
+        <v>840</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>798</v>
+        <v>840</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>807</v>
+        <v>849</v>
       </c>
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
@@ -11242,41 +11855,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>539</v>
+        <v>574</v>
       </c>
       <c r="B95" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C95" t="s">
-        <v>808</v>
+        <v>850</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>798</v>
+        <v>840</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>809</v>
+        <v>851</v>
       </c>
       <c r="G95" s="1"/>
       <c r="H95" s="1" t="s">
-        <v>810</v>
+        <v>852</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>811</v>
+        <v>853</v>
       </c>
       <c r="J95" s="1"/>
       <c r="K95" s="1" t="s">
-        <v>812</v>
+        <v>854</v>
       </c>
       <c r="L95" s="1" t="s">
-        <v>813</v>
+        <v>855</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>814</v>
+        <v>856</v>
       </c>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
@@ -11309,43 +11922,43 @@
         <v>9.023726851851853</v>
       </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>549</v>
+        <v>584</v>
       </c>
       <c r="B96" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C96" t="s">
-        <v>815</v>
+        <v>857</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>798</v>
+        <v>840</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>816</v>
+        <v>858</v>
       </c>
       <c r="G96" s="1"/>
       <c r="H96" s="1" t="s">
-        <v>817</v>
+        <v>859</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>818</v>
+        <v>860</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>819</v>
+        <v>861</v>
       </c>
       <c r="K96" s="1" t="s">
-        <v>820</v>
+        <v>862</v>
       </c>
       <c r="L96" s="1" t="s">
-        <v>821</v>
+        <v>863</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>822</v>
+        <v>864</v>
       </c>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
@@ -11381,43 +11994,43 @@
         <v>8.829131944444445</v>
       </c>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>556</v>
+        <v>592</v>
       </c>
       <c r="B97" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C97" t="s">
-        <v>823</v>
+        <v>865</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>798</v>
+        <v>840</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>824</v>
+        <v>866</v>
       </c>
       <c r="G97" s="1"/>
       <c r="H97" s="1" t="s">
-        <v>825</v>
+        <v>867</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>826</v>
+        <v>868</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>827</v>
+        <v>869</v>
       </c>
       <c r="K97" s="1" t="s">
-        <v>828</v>
+        <v>870</v>
       </c>
       <c r="L97" s="1" t="s">
-        <v>829</v>
+        <v>871</v>
       </c>
       <c r="M97" s="1" t="s">
-        <v>830</v>
+        <v>872</v>
       </c>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
@@ -11453,41 +12066,41 @@
         <v>8.828368055555556</v>
       </c>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>490</v>
+        <v>523</v>
       </c>
       <c r="B98" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C98" t="s">
-        <v>831</v>
+        <v>873</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>832</v>
+        <v>874</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>833</v>
+        <v>875</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="1" t="s">
-        <v>834</v>
+        <v>876</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>835</v>
+        <v>877</v>
       </c>
       <c r="J98" s="1"/>
       <c r="K98" s="1" t="s">
-        <v>836</v>
+        <v>878</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>837</v>
+        <v>879</v>
       </c>
       <c r="M98" s="1" t="s">
-        <v>838</v>
+        <v>880</v>
       </c>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
@@ -11520,43 +12133,43 @@
         <v>1.2858101851851853</v>
       </c>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>624</v>
+        <v>665</v>
       </c>
       <c r="B99" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C99" t="s">
-        <v>839</v>
+        <v>881</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>840</v>
+        <v>882</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>841</v>
+        <v>883</v>
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="1" t="s">
-        <v>842</v>
+        <v>884</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>843</v>
+        <v>885</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>844</v>
+        <v>886</v>
       </c>
       <c r="K99" s="1" t="s">
-        <v>845</v>
+        <v>887</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>846</v>
+        <v>888</v>
       </c>
       <c r="M99" s="1" t="s">
-        <v>847</v>
+        <v>889</v>
       </c>
       <c r="N99" s="1"/>
       <c r="O99" s="1"/>
@@ -11592,43 +12205,43 @@
         <v>8.942905092592593</v>
       </c>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>687</v>
+        <v>721</v>
       </c>
       <c r="B100" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="C100" t="s">
-        <v>848</v>
+        <v>890</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>388</v>
+        <v>413</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>849</v>
+        <v>891</v>
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="1" t="s">
-        <v>850</v>
+        <v>892</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>851</v>
+        <v>893</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>852</v>
+        <v>894</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>853</v>
+        <v>895</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>854</v>
+        <v>896</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>855</v>
+        <v>897</v>
       </c>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
@@ -11664,35 +12277,35 @@
         <v>9.99767361111111</v>
       </c>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>632</v>
+        <v>673</v>
       </c>
       <c r="B101" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C101" t="s">
-        <v>856</v>
+        <v>898</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>723</v>
+        <v>765</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>857</v>
+        <v>899</v>
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="1" t="s">
-        <v>858</v>
+        <v>900</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>859</v>
+        <v>901</v>
       </c>
       <c r="J101" s="1"/>
       <c r="K101" s="1" t="s">
-        <v>860</v>
+        <v>902</v>
       </c>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
@@ -11721,41 +12334,41 @@
         <v>1.6056365740740741</v>
       </c>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>693</v>
+        <v>730</v>
       </c>
       <c r="B102" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="C102" t="s">
-        <v>861</v>
+        <v>903</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>429</v>
+        <v>458</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>862</v>
+        <v>904</v>
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="1" t="s">
-        <v>863</v>
+        <v>905</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>864</v>
+        <v>906</v>
       </c>
       <c r="J102" s="1"/>
       <c r="K102" s="1" t="s">
-        <v>865</v>
+        <v>907</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>866</v>
+        <v>908</v>
       </c>
       <c r="M102" s="1" t="s">
-        <v>867</v>
+        <v>909</v>
       </c>
       <c r="N102" s="1"/>
       <c r="O102" s="1"/>
@@ -11788,125 +12401,13 @@
         <v>3.783738425925926</v>
       </c>
     </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>647</v>
-      </c>
-      <c r="B103" t="s">
-        <v>50</v>
-      </c>
-      <c r="C103" t="s">
-        <v>868</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F103" s="1" t="s">
-        <v>869</v>
-      </c>
-      <c r="G103" s="1"/>
-      <c r="H103" s="1" t="s">
-        <v>870</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>871</v>
-      </c>
-      <c r="J103" s="1"/>
-      <c r="K103" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
-      <c r="O103" s="1"/>
-      <c r="P103" s="1"/>
-      <c r="Q103" s="1"/>
-      <c r="R103" s="1"/>
-      <c r="S103" s="1"/>
-      <c r="T103">
-        <v>0.00011574074074074075</v>
-      </c>
-      <c r="V103">
-        <v>0.00005787037037037037</v>
-      </c>
-      <c r="W103">
-        <v>0.000046296296296296294</v>
-      </c>
-      <c r="Y103">
-        <v>0.0734837962962963</v>
-      </c>
-      <c r="AH103">
-        <v>0.0737037037037037</v>
-      </c>
-      <c r="AI103">
-        <v>0.07353009259259259</v>
-      </c>
-    </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>873</v>
-      </c>
-      <c r="B104" t="s">
-        <v>50</v>
-      </c>
-      <c r="C104" t="s">
-        <v>874</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="E104" s="1"/>
-      <c r="F104" s="1" t="s">
-        <v>875</v>
-      </c>
-      <c r="G104" s="1"/>
-      <c r="H104" s="1" t="s">
-        <v>876</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>877</v>
-      </c>
-      <c r="J104" s="1"/>
-      <c r="K104" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="L104" s="1" t="s">
-        <v>879</v>
-      </c>
-      <c r="M104" s="1"/>
-      <c r="N104" s="1"/>
-      <c r="O104" s="1"/>
-      <c r="P104" s="1"/>
-      <c r="Q104" s="1"/>
-      <c r="R104" s="1"/>
-      <c r="S104" s="1"/>
-      <c r="T104">
-        <v>0.008530092592592593</v>
-      </c>
-      <c r="V104">
-        <v>0.000046296296296296294</v>
-      </c>
-      <c r="W104">
-        <v>0.0061805555555555555</v>
-      </c>
-      <c r="Y104">
-        <v>1.1747916666666667</v>
-      </c>
-      <c r="Z104">
-        <v>0.79375</v>
-      </c>
-      <c r="AI104">
-        <v>1.9747222222222223</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="A1:AI1"/>
     <mergeCell ref="AJ1:AR1"/>
     <mergeCell ref="AS1:AT1"/>
+    <mergeCell ref="AU1:AV1"/>
+    <mergeCell ref="AW1:BA1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>

--- a/nodejs/src/jira-report-js-full.xlsx
+++ b/nodejs/src/jira-report-js-full.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="910">
   <si>
     <t>Raw metrics</t>
   </si>
@@ -220,6 +220,18 @@
     <t>2020-7-15</t>
   </si>
   <si>
+    <t>TDC Sprint 41</t>
+  </si>
+  <si>
+    <t>2020-8-25 00:30</t>
+  </si>
+  <si>
+    <t>2020-9-10 14:54</t>
+  </si>
+  <si>
+    <t>2020-9-10 13:31</t>
+  </si>
+  <si>
     <t>TDC-4121</t>
   </si>
   <si>
@@ -253,7 +265,7 @@
     <t>2020-7-17</t>
   </si>
   <si>
-    <t>TDC Sprint 41</t>
+    <t>TDC Sprint 42</t>
   </si>
   <si>
     <t>TDC-4479</t>
@@ -283,7 +295,7 @@
     <t>TDC-4501</t>
   </si>
   <si>
-    <t>TDC Sprint 42</t>
+    <t>TDC Sprint 43</t>
   </si>
   <si>
     <t>TDC-4552</t>
@@ -310,7 +322,7 @@
     <t>2020-7-20</t>
   </si>
   <si>
-    <t>TDC Sprint 43</t>
+    <t>TDC Sprint 44</t>
   </si>
   <si>
     <t>TDC-4481</t>
@@ -340,7 +352,7 @@
     <t>TDC-4226</t>
   </si>
   <si>
-    <t>TDC Sprint 44</t>
+    <t>TDC Sprint 45</t>
   </si>
   <si>
     <t>TDC-4081</t>
@@ -385,7 +397,7 @@
     <t>2020-7-21</t>
   </si>
   <si>
-    <t>TDC Sprint 45</t>
+    <t>TDC Sprint 46</t>
   </si>
   <si>
     <t>TDC-4551</t>
@@ -406,7 +418,7 @@
     <t>2020-7-24</t>
   </si>
   <si>
-    <t>TDC Sprint 46</t>
+    <t>TDC Sprint 47</t>
   </si>
   <si>
     <t>TDC-4642</t>
@@ -445,7 +457,7 @@
     <t>TDC-4535</t>
   </si>
   <si>
-    <t>TDC Sprint 47</t>
+    <t>TDC Sprint 48</t>
   </si>
   <si>
     <t>TDC-3796</t>
@@ -490,7 +502,7 @@
     <t>TDC-4342</t>
   </si>
   <si>
-    <t>TDC Sprint 48</t>
+    <t>TDC Sprint 49</t>
   </si>
   <si>
     <t>TDC-3951</t>
@@ -526,7 +538,7 @@
     <t>TDC-4519</t>
   </si>
   <si>
-    <t>TDC Sprint 49</t>
+    <t>TDC Sprint 50</t>
   </si>
   <si>
     <t>TDC-4523</t>
@@ -539,18 +551,6 @@
   </si>
   <si>
     <t>TDC-4498</t>
-  </si>
-  <si>
-    <t>TDC Sprint 50</t>
-  </si>
-  <si>
-    <t>2020-08-24T17:30:59.324-05:00</t>
-  </si>
-  <si>
-    <t>2020-09-10T07:54:00.000-05:00</t>
-  </si>
-  <si>
-    <t>2020-09-10T06:31:17.312-05:00</t>
   </si>
   <si>
     <t>TDC-3834</t>
@@ -3400,7 +3400,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -3495,43 +3495,58 @@
       <c r="AV3">
         <v>25</v>
       </c>
+      <c r="AW3">
+        <v>1567</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B4" t="s">
         <v>59</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -3558,10 +3573,10 @@
         <v>7.077928240740741</v>
       </c>
       <c r="AJ4" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="AK4" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AL4">
         <v>1.99</v>
@@ -3597,44 +3612,53 @@
         <v>12</v>
       </c>
       <c r="AW4">
-        <v>1567</v>
+        <v>1569</v>
       </c>
       <c r="AX4" t="s">
-        <v>80</v>
+        <v>84</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s">
         <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -3665,10 +3689,10 @@
         <v>1.9784027777777777</v>
       </c>
       <c r="AJ5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AK5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="AL5">
         <v>0.38</v>
@@ -3704,32 +3728,41 @@
         <v>6</v>
       </c>
       <c r="AW5">
-        <v>1569</v>
+        <v>1617</v>
       </c>
       <c r="AX5" t="s">
-        <v>90</v>
+        <v>94</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA5" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -3752,10 +3785,10 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="AK6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AL6">
         <v>12.05</v>
@@ -3791,44 +3824,53 @@
         <v>5</v>
       </c>
       <c r="AW6">
-        <v>1617</v>
+        <v>1656</v>
       </c>
       <c r="AX6" t="s">
-        <v>99</v>
+        <v>103</v>
+      </c>
+      <c r="AY6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA6" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -3859,10 +3901,10 @@
         <v>5.342604166666668</v>
       </c>
       <c r="AJ7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AK7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AL7">
         <v>23.74</v>
@@ -3898,51 +3940,60 @@
         <v>6</v>
       </c>
       <c r="AW7">
-        <v>1656</v>
+        <v>1657</v>
       </c>
       <c r="AX7" t="s">
-        <v>109</v>
+        <v>113</v>
+      </c>
+      <c r="AY7" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA7" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -3981,10 +4032,10 @@
         <v>8.135405092592594</v>
       </c>
       <c r="AJ8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AK8" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AL8">
         <v>9.92</v>
@@ -4020,30 +4071,39 @@
         <v>4</v>
       </c>
       <c r="AW8">
-        <v>1657</v>
+        <v>1682</v>
       </c>
       <c r="AX8" t="s">
-        <v>124</v>
+        <v>128</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -4068,10 +4128,10 @@
         <v>0</v>
       </c>
       <c r="AJ9" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="AK9" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AL9">
         <v>17.28</v>
@@ -4107,49 +4167,58 @@
         <v>7</v>
       </c>
       <c r="AW9">
-        <v>1682</v>
+        <v>1713</v>
       </c>
       <c r="AX9" t="s">
-        <v>131</v>
+        <v>135</v>
+      </c>
+      <c r="AY9" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA9" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s">
         <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
@@ -4185,10 +4254,10 @@
         <v>8.501493055555557</v>
       </c>
       <c r="AJ10" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="AK10" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AL10">
         <v>1.21</v>
@@ -4224,56 +4293,65 @@
         <v>6</v>
       </c>
       <c r="AW10">
-        <v>1713</v>
+        <v>1738</v>
       </c>
       <c r="AX10" t="s">
-        <v>144</v>
+        <v>148</v>
+      </c>
+      <c r="AY10" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA10" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -4312,10 +4390,10 @@
         <v>7.405104166666667</v>
       </c>
       <c r="AJ11" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AK11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AL11">
         <v>3.15</v>
@@ -4351,49 +4429,58 @@
         <v>3</v>
       </c>
       <c r="AW11">
-        <v>1738</v>
+        <v>1762</v>
       </c>
       <c r="AX11" t="s">
-        <v>159</v>
+        <v>163</v>
+      </c>
+      <c r="AY11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ11" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA11" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
@@ -4429,10 +4516,10 @@
         <v>27.956076388888892</v>
       </c>
       <c r="AJ12" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="AK12" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AL12">
         <v>3.28</v>
@@ -4468,30 +4555,39 @@
         <v>6</v>
       </c>
       <c r="AW12">
-        <v>1762</v>
+        <v>1772</v>
       </c>
       <c r="AX12" t="s">
-        <v>171</v>
+        <v>175</v>
+      </c>
+      <c r="AY12" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ12" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA12" t="s">
+        <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
@@ -4516,10 +4612,10 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AK13" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AL13">
         <v>3.23</v>
@@ -4554,23 +4650,8 @@
       <c r="AV13">
         <v>2</v>
       </c>
-      <c r="AW13">
-        <v>1772</v>
-      </c>
-      <c r="AX13" t="s">
-        <v>176</v>
-      </c>
-      <c r="AY13" t="s">
-        <v>177</v>
-      </c>
-      <c r="AZ13" t="s">
-        <v>178</v>
-      </c>
-      <c r="BA13" t="s">
-        <v>179</v>
-      </c>
     </row>
-    <row r="14" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>180</v>
       </c>
@@ -4640,7 +4721,7 @@
         <v>190</v>
       </c>
       <c r="AK14" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AL14">
         <v>1.01</v>
@@ -4670,12 +4751,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>191</v>
       </c>
       <c r="B15" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
         <v>192</v>
@@ -4684,7 +4765,7 @@
         <v>193</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>194</v>
@@ -4745,7 +4826,7 @@
         <v>201</v>
       </c>
       <c r="AK15" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AL15">
         <v>9.84</v>
@@ -4775,18 +4856,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C16" t="s">
         <v>202</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>68</v>
@@ -4835,7 +4916,7 @@
         <v>207</v>
       </c>
       <c r="AK16" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="AL16">
         <v>28.05</v>
@@ -4865,12 +4946,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>208</v>
       </c>
       <c r="B17" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C17" t="s">
         <v>209</v>
@@ -4927,10 +5008,10 @@
         <v>5.939965277777778</v>
       </c>
       <c r="AJ17" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AK17" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AL17">
         <v>27.96</v>
@@ -4960,7 +5041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>217</v>
       </c>
@@ -5035,7 +5116,7 @@
         <v>191</v>
       </c>
       <c r="AK18" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AL18">
         <v>13.07</v>
@@ -5065,7 +5146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>228</v>
       </c>
@@ -5079,7 +5160,7 @@
         <v>219</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>230</v>
@@ -5135,7 +5216,7 @@
         <v>236</v>
       </c>
       <c r="AK19" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AL19">
         <v>26.02</v>
@@ -5165,7 +5246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>237</v>
       </c>
@@ -5230,7 +5311,7 @@
         <v>246</v>
       </c>
       <c r="AK20" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AL20">
         <v>11.06</v>
@@ -5260,12 +5341,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>247</v>
       </c>
       <c r="B21" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C21" t="s">
         <v>248</v>
@@ -5274,7 +5355,7 @@
         <v>239</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>249</v>
@@ -5335,7 +5416,7 @@
         <v>256</v>
       </c>
       <c r="AK21" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AL21">
         <v>0.73</v>
@@ -5365,7 +5446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>257</v>
       </c>
@@ -5420,7 +5501,7 @@
         <v>263</v>
       </c>
       <c r="AK22" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AL22">
         <v>3.97</v>
@@ -5444,12 +5525,12 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>264</v>
       </c>
       <c r="B23" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C23" t="s">
         <v>265</v>
@@ -5524,7 +5605,7 @@
         <v>275</v>
       </c>
       <c r="AK23" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AL23">
         <v>7.67</v>
@@ -5548,7 +5629,7 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>276</v>
       </c>
@@ -5628,7 +5709,7 @@
         <v>286</v>
       </c>
       <c r="AK24" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="AL24">
         <v>0.1</v>
@@ -5652,7 +5733,7 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>201</v>
       </c>
@@ -5666,7 +5747,7 @@
         <v>239</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>288</v>
@@ -5751,9 +5832,9 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
         <v>59</v>
@@ -5765,7 +5846,7 @@
         <v>298</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>299</v>
@@ -5855,7 +5936,7 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>308</v>
       </c>
@@ -5949,12 +6030,12 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B28" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
         <v>317</v>
@@ -5963,7 +6044,7 @@
         <v>318</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>319</v>
@@ -6058,12 +6139,12 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B29" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C29" t="s">
         <v>329</v>
@@ -6072,7 +6153,7 @@
         <v>298</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>330</v>
@@ -6157,18 +6238,18 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>338</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C30" t="s">
         <v>339</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>259</v>
@@ -6246,12 +6327,12 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>346</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
         <v>347</v>
@@ -6345,9 +6426,9 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B32" t="s">
         <v>59</v>
@@ -6359,7 +6440,7 @@
         <v>359</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>360</v>
@@ -6439,9 +6520,9 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="33" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
         <v>59</v>
@@ -6453,7 +6534,7 @@
         <v>368</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>369</v>
@@ -6533,9 +6614,9 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="34" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
@@ -6547,7 +6628,7 @@
         <v>219</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>377</v>
@@ -6627,9 +6708,9 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="35" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B35" t="s">
         <v>59</v>
@@ -6641,7 +6722,7 @@
         <v>384</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>385</v>
@@ -6711,7 +6792,7 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="36" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>207</v>
       </c>
@@ -6725,7 +6806,7 @@
         <v>391</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>392</v>
@@ -6810,12 +6891,12 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="37" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>401</v>
       </c>
       <c r="B37" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
         <v>402</v>
@@ -6899,12 +6980,12 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="38" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>411</v>
       </c>
       <c r="B38" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C38" t="s">
         <v>412</v>
@@ -6993,7 +7074,7 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="39" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>420</v>
       </c>
@@ -7067,7 +7148,7 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="40" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>425</v>
       </c>
@@ -7081,7 +7162,7 @@
         <v>427</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>428</v>
@@ -7136,7 +7217,7 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="41" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>307</v>
       </c>
@@ -7147,7 +7228,7 @@
         <v>430</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>183</v>
@@ -7230,7 +7311,7 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="42" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>356</v>
       </c>
@@ -7312,10 +7393,10 @@
         <v>11.342962962962963</v>
       </c>
       <c r="AJ42" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AK42" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AL42">
         <v>7.08</v>
@@ -7339,7 +7420,7 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="43" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>449</v>
       </c>
@@ -7353,7 +7434,7 @@
         <v>259</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>451</v>
@@ -7401,10 +7482,10 @@
         <v>0.0001736111111111111</v>
       </c>
       <c r="AJ43" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="AK43" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AL43">
         <v>1.98</v>
@@ -7428,7 +7509,7 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="44" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>456</v>
       </c>
@@ -7522,12 +7603,12 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="45" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>468</v>
       </c>
       <c r="B45" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C45" t="s">
         <v>469</v>
@@ -7626,12 +7707,12 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="46" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>236</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C46" t="s">
         <v>480</v>
@@ -7640,7 +7721,7 @@
         <v>481</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>482</v>
@@ -7698,10 +7779,10 @@
         <v>26.016331018518517</v>
       </c>
       <c r="AJ46" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="AK46" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AL46">
         <v>5.34</v>
@@ -7725,12 +7806,12 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="47" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>316</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C47" t="s">
         <v>489</v>
@@ -7810,7 +7891,7 @@
         <v>247</v>
       </c>
       <c r="AK47" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AL47">
         <v>13.32</v>
@@ -7834,12 +7915,12 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="48" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>500</v>
       </c>
       <c r="B48" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C48" t="s">
         <v>501</v>
@@ -7899,7 +7980,7 @@
         <v>507</v>
       </c>
       <c r="AK48" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AL48">
         <v>12.03</v>
@@ -7923,12 +8004,12 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="49" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>399</v>
       </c>
       <c r="B49" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C49" t="s">
         <v>508</v>
@@ -7988,7 +8069,7 @@
         <v>514</v>
       </c>
       <c r="AK49" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AL49">
         <v>15.49</v>
@@ -8012,12 +8093,12 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="50" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>246</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C50" t="s">
         <v>515</v>
@@ -8026,7 +8107,7 @@
         <v>219</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>516</v>
@@ -8087,7 +8168,7 @@
         <v>523</v>
       </c>
       <c r="AK50" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AL50">
         <v>1.29</v>
@@ -8111,21 +8192,21 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="51" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>507</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C51" t="s">
         <v>524</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>525</v>
@@ -8215,12 +8296,12 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="52" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>389</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C52" t="s">
         <v>533</v>
@@ -8309,12 +8390,12 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="53" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>540</v>
       </c>
       <c r="B53" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C53" t="s">
         <v>541</v>
@@ -8408,18 +8489,18 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="54" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>549</v>
       </c>
       <c r="B54" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C54" t="s">
         <v>550</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>458</v>
@@ -8512,7 +8593,7 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="55" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>559</v>
       </c>
@@ -8601,12 +8682,12 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="56" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>567</v>
       </c>
       <c r="B56" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C56" t="s">
         <v>568</v>
@@ -8615,7 +8696,7 @@
         <v>259</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>569</v>
@@ -8690,12 +8771,12 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="57" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>575</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C57" t="s">
         <v>576</v>
@@ -8789,7 +8870,7 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="58" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>585</v>
       </c>
@@ -8800,7 +8881,7 @@
         <v>586</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>459</v>
@@ -8878,12 +8959,12 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="59" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>328</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C59" t="s">
         <v>593</v>
@@ -8958,7 +9039,7 @@
         <v>228</v>
       </c>
       <c r="AK59" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AL59">
         <v>15.95</v>
@@ -8982,12 +9063,12 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="60" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>337</v>
       </c>
       <c r="B60" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C60" t="s">
         <v>602</v>
@@ -9062,7 +9143,7 @@
         <v>611</v>
       </c>
       <c r="AK60" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AL60">
         <v>6.02</v>
@@ -9086,12 +9167,12 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="61" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>612</v>
       </c>
       <c r="B61" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C61" t="s">
         <v>613</v>
@@ -9100,7 +9181,7 @@
         <v>211</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>614</v>
@@ -9180,7 +9261,7 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="62" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>429</v>
       </c>
@@ -9274,7 +9355,7 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="63" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>627</v>
       </c>
@@ -9353,7 +9434,7 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="64" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>295</v>
       </c>
@@ -9364,7 +9445,7 @@
         <v>633</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>296</v>
@@ -9410,10 +9491,10 @@
         <v>2.0066319444444445</v>
       </c>
       <c r="AJ64" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="AK64" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AL64">
         <v>8.14</v>
@@ -9437,7 +9518,7 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="65" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>638</v>
       </c>
@@ -9489,10 +9570,10 @@
         <v>0</v>
       </c>
       <c r="AJ65" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AK65" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AL65">
         <v>7.41</v>
@@ -9516,7 +9597,7 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="66" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>643</v>
       </c>
@@ -9527,10 +9608,10 @@
         <v>633</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>644</v>
@@ -9581,7 +9662,7 @@
         <v>649</v>
       </c>
       <c r="AK66" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AL66">
         <v>15.82</v>
@@ -9605,7 +9686,7 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="67" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>466</v>
       </c>
@@ -9616,7 +9697,7 @@
         <v>650</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>467</v>
@@ -9685,7 +9766,7 @@
         <v>659</v>
       </c>
       <c r="AK67" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AL67">
         <v>1.36</v>
@@ -9709,7 +9790,7 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="68" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>660</v>
       </c>
@@ -9759,7 +9840,7 @@
         <v>665</v>
       </c>
       <c r="AK68" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AL68">
         <v>8.94</v>
@@ -9783,12 +9864,12 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="69" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>666</v>
       </c>
       <c r="B69" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C69" t="s">
         <v>667</v>
@@ -9838,7 +9919,7 @@
         <v>673</v>
       </c>
       <c r="AK69" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AL69">
         <v>1.61</v>
@@ -9862,7 +9943,7 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="70" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>514</v>
       </c>
@@ -9876,7 +9957,7 @@
         <v>298</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>675</v>
@@ -9961,7 +10042,7 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="71" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>682</v>
       </c>
@@ -9972,10 +10053,10 @@
         <v>683</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>684</v>
@@ -10045,21 +10126,21 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="72" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>256</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C72" t="s">
         <v>688</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>689</v>
@@ -10144,12 +10225,12 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="73" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>566</v>
       </c>
       <c r="B73" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C73" t="s">
         <v>696</v>
@@ -10243,7 +10324,7 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="74" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>611</v>
       </c>
@@ -10257,7 +10338,7 @@
         <v>706</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>707</v>
@@ -10332,12 +10413,12 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="75" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>649</v>
       </c>
       <c r="B75" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C75" t="s">
         <v>713</v>
@@ -10346,7 +10427,7 @@
         <v>348</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>714</v>
@@ -10431,12 +10512,12 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="76" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>722</v>
       </c>
       <c r="B76" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C76" t="s">
         <v>723</v>
@@ -10525,12 +10606,12 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="77" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>731</v>
       </c>
       <c r="B77" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C77" t="s">
         <v>732</v>
@@ -10599,7 +10680,7 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="78" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>263</v>
       </c>
@@ -10610,10 +10691,10 @@
         <v>736</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>737</v>
@@ -10693,7 +10774,7 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="79" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>275</v>
       </c>
@@ -10704,10 +10785,10 @@
         <v>743</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>744</v>
@@ -10787,7 +10868,7 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="80" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>286</v>
       </c>
@@ -10798,10 +10879,10 @@
         <v>750</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>751</v>
@@ -10881,7 +10962,7 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="81" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>410</v>
       </c>
@@ -10948,10 +11029,10 @@
         <v>4.040729166666667</v>
       </c>
       <c r="AJ81" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AK81" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AL81">
         <v>8.5</v>
@@ -10975,7 +11056,7 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="82" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>659</v>
       </c>
@@ -10989,7 +11070,7 @@
         <v>765</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>766</v>
@@ -11045,7 +11126,7 @@
         <v>567</v>
       </c>
       <c r="AK82" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AL82">
         <v>9.97</v>
@@ -11069,12 +11150,12 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="83" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>437</v>
       </c>
       <c r="B83" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C83" t="s">
         <v>772</v>
@@ -11129,7 +11210,7 @@
         <v>612</v>
       </c>
       <c r="AK83" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AL83">
         <v>5.39</v>
@@ -11153,12 +11234,12 @@
         <v>46.15642476851851</v>
       </c>
     </row>
-    <row r="84" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B84" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C84" t="s">
         <v>777</v>
@@ -11167,7 +11248,7 @@
         <v>318</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>778</v>
@@ -11220,7 +11301,7 @@
         <v>3.145115740740741</v>
       </c>
     </row>
-    <row r="85" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>712</v>
       </c>
@@ -11282,21 +11363,21 @@
         <v>3.7902199074074074</v>
       </c>
     </row>
-    <row r="86" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B86" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C86" t="s">
         <v>790</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>791</v>
@@ -11354,12 +11435,12 @@
         <v>3.275324074074074</v>
       </c>
     </row>
-    <row r="87" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B87" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C87" t="s">
         <v>798</v>
@@ -11368,7 +11449,7 @@
         <v>68</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>799</v>
@@ -11421,12 +11502,12 @@
         <v>3.225173611111111</v>
       </c>
     </row>
-    <row r="88" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>190</v>
       </c>
       <c r="B88" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C88" t="s">
         <v>805</v>
@@ -11435,7 +11516,7 @@
         <v>359</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>806</v>
@@ -11493,7 +11574,7 @@
         <v>1.0134606481481483</v>
       </c>
     </row>
-    <row r="89" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>813</v>
       </c>
@@ -11504,10 +11585,10 @@
         <v>814</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>815</v>
@@ -11535,18 +11616,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>345</v>
       </c>
       <c r="B90" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C90" t="s">
         <v>816</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>183</v>
@@ -11607,18 +11688,18 @@
         <v>1.3085185185185184</v>
       </c>
     </row>
-    <row r="91" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>366</v>
       </c>
       <c r="B91" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C91" t="s">
         <v>824</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>357</v>
@@ -11679,7 +11760,7 @@
         <v>1.888125</v>
       </c>
     </row>
-    <row r="92" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>375</v>
       </c>
@@ -11746,7 +11827,7 @@
         <v>2.079340277777778</v>
       </c>
     </row>
-    <row r="93" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>479</v>
       </c>
@@ -11813,7 +11894,7 @@
         <v>2.860601851851852</v>
       </c>
     </row>
-    <row r="94" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>847</v>
       </c>
@@ -11855,7 +11936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>574</v>
       </c>
@@ -11922,7 +12003,7 @@
         <v>9.023726851851853</v>
       </c>
     </row>
-    <row r="96" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>584</v>
       </c>
@@ -11994,7 +12075,7 @@
         <v>8.829131944444445</v>
       </c>
     </row>
-    <row r="97" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>592</v>
       </c>
@@ -12066,7 +12147,7 @@
         <v>8.828368055555556</v>
       </c>
     </row>
-    <row r="98" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>523</v>
       </c>
@@ -12080,7 +12161,7 @@
         <v>874</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>875</v>
@@ -12133,12 +12214,12 @@
         <v>1.2858101851851853</v>
       </c>
     </row>
-    <row r="99" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>665</v>
       </c>
       <c r="B99" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C99" t="s">
         <v>881</v>
@@ -12147,7 +12228,7 @@
         <v>882</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>883</v>
@@ -12205,12 +12286,12 @@
         <v>8.942905092592593</v>
       </c>
     </row>
-    <row r="100" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>721</v>
       </c>
       <c r="B100" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C100" t="s">
         <v>890</v>
@@ -12277,7 +12358,7 @@
         <v>9.99767361111111</v>
       </c>
     </row>
-    <row r="101" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>673</v>
       </c>
@@ -12291,7 +12372,7 @@
         <v>765</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>899</v>
@@ -12334,7 +12415,7 @@
         <v>1.6056365740740741</v>
       </c>
     </row>
-    <row r="102" spans="1:49" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>730</v>
       </c>
@@ -12345,7 +12426,7 @@
         <v>903</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>458</v>
